--- a/12h_input_jpg/12h_simulation_results.xlsx
+++ b/12h_input_jpg/12h_simulation_results.xlsx
@@ -482,25 +482,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.315756153002192</v>
+        <v>6.161211108121767</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04800337416008091</v>
+        <v>0.1665545766184925</v>
       </c>
       <c r="D2" t="n">
-        <v>1.944362781034022</v>
+        <v>1.944789889876056</v>
       </c>
       <c r="E2" t="n">
-        <v>18.92508294329236</v>
+        <v>18.88397474855189</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1780581255633543</v>
+        <v>0.1685949979455671</v>
       </c>
       <c r="G2" t="n">
-        <v>6107.458136515911</v>
+        <v>6109.792300613372</v>
       </c>
       <c r="H2" t="n">
-        <v>3.06961318157378</v>
+        <v>0.90224148498205</v>
       </c>
     </row>
     <row r="3">
@@ -510,25 +510,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.319731823468698</v>
+        <v>7.163559653833051</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04817154857535464</v>
+        <v>0.2413738010935393</v>
       </c>
       <c r="D3" t="n">
-        <v>1.941262076936515</v>
+        <v>1.928076181511488</v>
       </c>
       <c r="E3" t="n">
-        <v>18.9177313846183</v>
+        <v>17.49707917390548</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1778871037030099</v>
+        <v>0.1739334042591885</v>
       </c>
       <c r="G3" t="n">
-        <v>6105.16557577636</v>
+        <v>6066.739915320049</v>
       </c>
       <c r="H3" t="n">
-        <v>3.01939309099262</v>
+        <v>0.778165166057905</v>
       </c>
     </row>
     <row r="4">
@@ -538,25 +538,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.322151789859803</v>
+        <v>7.751402521479191</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04820567651414265</v>
+        <v>0.3293059986846145</v>
       </c>
       <c r="D4" t="n">
-        <v>1.951258777772816</v>
+        <v>1.953812856241953</v>
       </c>
       <c r="E4" t="n">
-        <v>18.92101486732804</v>
+        <v>17.2037934358048</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1779253448471261</v>
+        <v>0.1759190004752989</v>
       </c>
       <c r="G4" t="n">
-        <v>6107.085395633308</v>
+        <v>6062.619929277637</v>
       </c>
       <c r="H4" t="n">
-        <v>3.01661550827609</v>
+        <v>0.619122282122568</v>
       </c>
     </row>
     <row r="5">
@@ -566,25 +566,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.320765873120152</v>
+        <v>7.374828660439036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04808030043134427</v>
+        <v>0.2065042181247769</v>
       </c>
       <c r="D5" t="n">
-        <v>1.957924983074796</v>
+        <v>1.971749968719676</v>
       </c>
       <c r="E5" t="n">
-        <v>18.92369690548219</v>
+        <v>17.06497536997713</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1779847874381918</v>
+        <v>0.1792215464824734</v>
       </c>
       <c r="G5" t="n">
-        <v>6108.355881534404</v>
+        <v>6060.688545916068</v>
       </c>
       <c r="H5" t="n">
-        <v>3.08613386158975</v>
+        <v>1.02241551533409</v>
       </c>
     </row>
     <row r="6">
@@ -594,25 +594,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.319963208324481</v>
+        <v>7.171919800834845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04806748243827754</v>
+        <v>0.1852237465307275</v>
       </c>
       <c r="D6" t="n">
-        <v>1.954185365563931</v>
+        <v>1.960815778310059</v>
       </c>
       <c r="E6" t="n">
-        <v>18.92186075891484</v>
+        <v>17.03067473820152</v>
       </c>
       <c r="F6" t="n">
-        <v>0.177953880927825</v>
+        <v>0.1788793201554526</v>
       </c>
       <c r="G6" t="n">
-        <v>6107.501328181056</v>
+        <v>6057.67618547688</v>
       </c>
       <c r="H6" t="n">
-        <v>3.09234519463037</v>
+        <v>1.16920649813088</v>
       </c>
     </row>
     <row r="7">
@@ -622,25 +622,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.317299117820773</v>
+        <v>6.355147286812049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0478963094261098</v>
+        <v>0.135490809570403</v>
       </c>
       <c r="D7" t="n">
-        <v>1.966763587905733</v>
+        <v>2.003334028304975</v>
       </c>
       <c r="E7" t="n">
-        <v>18.93165526950243</v>
+        <v>18.04798472289346</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1780569085509</v>
+        <v>0.1738760683475063</v>
       </c>
       <c r="G7" t="n">
-        <v>6111.274605978584</v>
+        <v>6092.998980977033</v>
       </c>
       <c r="H7" t="n">
-        <v>3.1788646273934</v>
+        <v>1.45206613378062</v>
       </c>
     </row>
     <row r="8">
@@ -650,25 +650,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.318516488249202</v>
+        <v>6.842147859709125</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04794905353382902</v>
+        <v>0.135106563585321</v>
       </c>
       <c r="D8" t="n">
-        <v>1.957742791943232</v>
+        <v>1.966268560752598</v>
       </c>
       <c r="E8" t="n">
-        <v>18.92093711635992</v>
+        <v>16.32519615503827</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1779417441917592</v>
+        <v>0.1817629025936752</v>
       </c>
       <c r="G8" t="n">
-        <v>6107.40429394605</v>
+        <v>6035.678579079587</v>
       </c>
       <c r="H8" t="n">
-        <v>3.17731153383427</v>
+        <v>1.8266813565728</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4.316848697137319</v>
+        <v>6.338439349878958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04793635894110378</v>
+        <v>0.1295618855827789</v>
       </c>
       <c r="D9" t="n">
-        <v>1.953324135747621</v>
+        <v>1.959744001086686</v>
       </c>
       <c r="E9" t="n">
-        <v>18.92257579127805</v>
+        <v>17.26527159728331</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1780044160864757</v>
+        <v>0.1801845773450297</v>
       </c>
       <c r="G9" t="n">
-        <v>6107.578083240951</v>
+        <v>6063.871351226687</v>
       </c>
       <c r="H9" t="n">
-        <v>3.15791203098817</v>
+        <v>1.73717125213666</v>
       </c>
     </row>
     <row r="10">
@@ -706,25 +706,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4.322082573708779</v>
+        <v>7.706217139656992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04822084997760868</v>
+        <v>0.4430263674745127</v>
       </c>
       <c r="D10" t="n">
-        <v>1.952704247101805</v>
+        <v>1.962242238542195</v>
       </c>
       <c r="E10" t="n">
-        <v>18.92451009722102</v>
+        <v>17.92274610690763</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1779398668672505</v>
+        <v>0.1696262111300788</v>
       </c>
       <c r="G10" t="n">
-        <v>6108.227000426791</v>
+        <v>6084.922472487351</v>
       </c>
       <c r="H10" t="n">
-        <v>2.99381518854274</v>
+        <v>0.408294371143115</v>
       </c>
     </row>
     <row r="11">
@@ -734,25 +734,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.320200061056363</v>
+        <v>7.255991917523749</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0478576638678465</v>
+        <v>0.1245269712643482</v>
       </c>
       <c r="D11" t="n">
-        <v>1.976043489223956</v>
+        <v>2.019392049718988</v>
       </c>
       <c r="E11" t="n">
-        <v>18.9289217068778</v>
+        <v>16.0869979844027</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1781623857487966</v>
+        <v>0.1884058994177188</v>
       </c>
       <c r="G11" t="n">
-        <v>6110.942996779026</v>
+        <v>6036.80988058217</v>
       </c>
       <c r="H11" t="n">
-        <v>3.20341893909437</v>
+        <v>1.84541311316099</v>
       </c>
     </row>
     <row r="12">
@@ -762,25 +762,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.320784751177024</v>
+        <v>7.247081309203184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.04807801471774326</v>
+        <v>0.3081589926708974</v>
       </c>
       <c r="D12" t="n">
-        <v>1.964151699411352</v>
+        <v>1.99869982868735</v>
       </c>
       <c r="E12" t="n">
-        <v>18.93175340758661</v>
+        <v>18.45935795212192</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1781143801396298</v>
+        <v>0.1732589266329899</v>
       </c>
       <c r="G12" t="n">
-        <v>6111.286966707645</v>
+        <v>6107.488880827948</v>
       </c>
       <c r="H12" t="n">
-        <v>3.04851201984684</v>
+        <v>0.507424361924978</v>
       </c>
     </row>
     <row r="13">
@@ -790,25 +790,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.319163241324269</v>
+        <v>6.888894075156626</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04798262301228578</v>
+        <v>0.146682165330491</v>
       </c>
       <c r="D13" t="n">
-        <v>1.958257605103156</v>
+        <v>1.972045244335943</v>
       </c>
       <c r="E13" t="n">
-        <v>18.92352700372505</v>
+        <v>16.94843537111773</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1780494499353782</v>
+        <v>0.1838973552407485</v>
       </c>
       <c r="G13" t="n">
-        <v>6108.308103400306</v>
+        <v>6057.459058000204</v>
       </c>
       <c r="H13" t="n">
-        <v>3.12802228242091</v>
+        <v>1.4814129523333</v>
       </c>
     </row>
     <row r="14">
@@ -818,25 +818,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.320160347130056</v>
+        <v>7.448697129091808</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04807740969841409</v>
+        <v>0.1535076917826048</v>
       </c>
       <c r="D14" t="n">
-        <v>1.943270333382846</v>
+        <v>1.922479291522354</v>
       </c>
       <c r="E14" t="n">
-        <v>18.91123515855879</v>
+        <v>15.70429271823351</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1778676369575009</v>
+        <v>0.1857080876502342</v>
       </c>
       <c r="G14" t="n">
-        <v>6103.509098303127</v>
+        <v>6012.45592286039</v>
       </c>
       <c r="H14" t="n">
-        <v>3.0861470394636</v>
+        <v>1.45070760999474</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +846,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.319233086789492</v>
+        <v>6.80348780431944</v>
       </c>
       <c r="C15" t="n">
-        <v>0.04790418575645105</v>
+        <v>0.1367713152901513</v>
       </c>
       <c r="D15" t="n">
-        <v>1.973224584754157</v>
+        <v>2.018266772803857</v>
       </c>
       <c r="E15" t="n">
-        <v>18.93159717421212</v>
+        <v>17.23588750409217</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1782085202975285</v>
+        <v>0.1864881044834431</v>
       </c>
       <c r="G15" t="n">
-        <v>6111.732666040787</v>
+        <v>6073.441434617169</v>
       </c>
       <c r="H15" t="n">
-        <v>3.18117832505171</v>
+        <v>1.56644689620867</v>
       </c>
     </row>
     <row r="16">
@@ -874,25 +874,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.318829933833745</v>
+        <v>6.833667989846624</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04800121647321706</v>
+        <v>0.2258524634006312</v>
       </c>
       <c r="D16" t="n">
-        <v>1.972916533988841</v>
+        <v>2.027586706254573</v>
       </c>
       <c r="E16" t="n">
-        <v>18.93717328772596</v>
+        <v>18.87606158673004</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1782289689947144</v>
+        <v>0.1743094601624335</v>
       </c>
       <c r="G16" t="n">
-        <v>6113.511265441612</v>
+        <v>6124.548510741398</v>
       </c>
       <c r="H16" t="n">
-        <v>3.14182905620538</v>
+        <v>0.643643081933554</v>
       </c>
     </row>
     <row r="17">
@@ -902,25 +902,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.31972241216864</v>
+        <v>7.215773485280502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04832377924616258</v>
+        <v>0.2120040052750458</v>
       </c>
       <c r="D17" t="n">
-        <v>1.91539730163769</v>
+        <v>1.855594681173788</v>
       </c>
       <c r="E17" t="n">
-        <v>18.90100124813313</v>
+        <v>16.48774253153153</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1776726689690616</v>
+        <v>0.1778968316062548</v>
       </c>
       <c r="G17" t="n">
-        <v>6097.612273404007</v>
+        <v>6025.607494326578</v>
       </c>
       <c r="H17" t="n">
-        <v>2.93137128314127</v>
+        <v>0.920690798715077</v>
       </c>
     </row>
     <row r="18">
@@ -930,25 +930,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.321603818618794</v>
+        <v>7.530481066999322</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04853650727089642</v>
+        <v>1.175808586906372</v>
       </c>
       <c r="D18" t="n">
-        <v>1.919150086222203</v>
+        <v>1.882997196332362</v>
       </c>
       <c r="E18" t="n">
-        <v>18.91644185411653</v>
+        <v>19.4428256811681</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1780484667377233</v>
+        <v>0.1688236511577871</v>
       </c>
       <c r="G18" t="n">
-        <v>6102.201217313333</v>
+        <v>6118.34667635292</v>
       </c>
       <c r="H18" t="n">
-        <v>2.77498212535337</v>
+        <v>0.197604768965614</v>
       </c>
     </row>
     <row r="19">
@@ -958,25 +958,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.319491395599943</v>
+        <v>7.211759282740765</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04835588162039466</v>
+        <v>0.2337581626299937</v>
       </c>
       <c r="D19" t="n">
-        <v>1.913274803379379</v>
+        <v>1.851716982340882</v>
       </c>
       <c r="E19" t="n">
-        <v>18.90114382515287</v>
+        <v>16.72021468374787</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1776286226107263</v>
+        <v>0.174085193319839</v>
       </c>
       <c r="G19" t="n">
-        <v>6097.318784302475</v>
+        <v>6031.119887009507</v>
       </c>
       <c r="H19" t="n">
-        <v>2.91893558121126</v>
+        <v>0.772688695653948</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.317353534978853</v>
+        <v>6.677976154798285</v>
       </c>
       <c r="C20" t="n">
-        <v>0.04833393270411187</v>
+        <v>0.3570641781195792</v>
       </c>
       <c r="D20" t="n">
-        <v>1.914189679300129</v>
+        <v>1.86536641430081</v>
       </c>
       <c r="E20" t="n">
-        <v>18.91086917055625</v>
+        <v>18.63406617577269</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1778433688240932</v>
+        <v>0.1630174993200333</v>
       </c>
       <c r="G20" t="n">
-        <v>6099.861933185092</v>
+        <v>6088.998321990516</v>
       </c>
       <c r="H20" t="n">
-        <v>2.88499964571516</v>
+        <v>0.372403422902491</v>
       </c>
     </row>
     <row r="21">
@@ -1014,25 +1014,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.322833653980058</v>
+        <v>8.213875620236292</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04882866730111465</v>
+        <v>0.2854836270673512</v>
       </c>
       <c r="D21" t="n">
-        <v>1.872501716977989</v>
+        <v>1.745562781591818</v>
       </c>
       <c r="E21" t="n">
-        <v>18.8663820630127</v>
+        <v>14.22460581627589</v>
       </c>
       <c r="F21" t="n">
-        <v>0.177382889640452</v>
+        <v>0.1874885001233447</v>
       </c>
       <c r="G21" t="n">
-        <v>6082.405342058416</v>
+        <v>5944.11939187265</v>
       </c>
       <c r="H21" t="n">
-        <v>2.76209177869149</v>
+        <v>0.72540351190052</v>
       </c>
     </row>
     <row r="22">
@@ -1042,25 +1042,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4.306663824834358</v>
+        <v>5.211567160371049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04809357511923157</v>
+        <v>0.1108263791677826</v>
       </c>
       <c r="D22" t="n">
-        <v>1.886182164382818</v>
+        <v>1.79431844839189</v>
       </c>
       <c r="E22" t="n">
-        <v>18.89465254959727</v>
+        <v>17.74017247957259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1775506278390697</v>
+        <v>0.1652317232853394</v>
       </c>
       <c r="G22" t="n">
-        <v>6090.883935004485</v>
+        <v>6046.641857401362</v>
       </c>
       <c r="H22" t="n">
-        <v>3.00000005149449</v>
+        <v>1.60581485195452</v>
       </c>
     </row>
     <row r="23">
@@ -1070,25 +1070,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4.313052936636088</v>
+        <v>5.990298181752636</v>
       </c>
       <c r="C23" t="n">
-        <v>0.04817474798657477</v>
+        <v>0.1632325829407623</v>
       </c>
       <c r="D23" t="n">
-        <v>1.908718215828817</v>
+        <v>1.849967238774669</v>
       </c>
       <c r="E23" t="n">
-        <v>18.90752932135475</v>
+        <v>18.37038547890016</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1776572869365151</v>
+        <v>0.1581233227209867</v>
       </c>
       <c r="G23" t="n">
-        <v>6098.006580857086</v>
+        <v>6075.64035542759</v>
       </c>
       <c r="H23" t="n">
-        <v>2.96716672669519</v>
+        <v>0.854221296681908</v>
       </c>
     </row>
     <row r="24">
@@ -1098,25 +1098,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.314806126486816</v>
+        <v>6.409614680196864</v>
       </c>
       <c r="C24" t="n">
-        <v>0.04834056121226586</v>
+        <v>0.2190111358873076</v>
       </c>
       <c r="D24" t="n">
-        <v>1.899610114774608</v>
+        <v>1.826159192666344</v>
       </c>
       <c r="E24" t="n">
-        <v>18.9012643067638</v>
+        <v>17.95054405212573</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1775580704195083</v>
+        <v>0.1583431566223071</v>
       </c>
       <c r="G24" t="n">
-        <v>6095.031620743921</v>
+        <v>6059.834427102264</v>
       </c>
       <c r="H24" t="n">
-        <v>2.90078569995526</v>
+        <v>0.641795501404809</v>
       </c>
     </row>
     <row r="25">
@@ -1126,25 +1126,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.313960025975803</v>
+        <v>6.599215300830569</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04855808302123946</v>
+        <v>0.163064943682606</v>
       </c>
       <c r="D25" t="n">
-        <v>1.866944978284987</v>
+        <v>1.739854387837378</v>
       </c>
       <c r="E25" t="n">
-        <v>18.87123928083657</v>
+        <v>15.41417352943402</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1770572347818848</v>
+        <v>0.1689434589022969</v>
       </c>
       <c r="G25" t="n">
-        <v>6081.961947529768</v>
+        <v>5971.064264934125</v>
       </c>
       <c r="H25" t="n">
-        <v>2.86268962974998</v>
+        <v>1.31315152583062</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.306867689242893</v>
+        <v>5.452354153181887</v>
       </c>
       <c r="C26" t="n">
-        <v>0.04847677874634877</v>
+        <v>0.2111166741723455</v>
       </c>
       <c r="D26" t="n">
-        <v>1.861463660841814</v>
+        <v>1.749353945889929</v>
       </c>
       <c r="E26" t="n">
-        <v>18.89036548097309</v>
+        <v>18.83285207214494</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1777958990128172</v>
+        <v>0.1719406059119459</v>
       </c>
       <c r="G26" t="n">
-        <v>6084.768190672115</v>
+        <v>6073.556265732421</v>
       </c>
       <c r="H26" t="n">
-        <v>2.78183401723668</v>
+        <v>0.502642143264449</v>
       </c>
     </row>
     <row r="27">
@@ -1182,25 +1182,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4.304076905200751</v>
+        <v>4.732700801466535</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04794178174967623</v>
+        <v>0.09063729403782833</v>
       </c>
       <c r="D27" t="n">
-        <v>1.880830421788328</v>
+        <v>1.768732773870034</v>
       </c>
       <c r="E27" t="n">
-        <v>18.87860042298246</v>
+        <v>15.33526937227647</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1774723658820341</v>
+        <v>0.1820911061879343</v>
       </c>
       <c r="G27" t="n">
-        <v>6086.259821361696</v>
+        <v>5974.34814417881</v>
       </c>
       <c r="H27" t="n">
-        <v>3.13701648089444</v>
+        <v>3.19112812858573</v>
       </c>
     </row>
     <row r="28">
@@ -1210,25 +1210,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4.31592022704865</v>
+        <v>6.534088011625975</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04854592640408625</v>
+        <v>0.5661904241774245</v>
       </c>
       <c r="D28" t="n">
-        <v>1.891915891008864</v>
+        <v>1.816250509336727</v>
       </c>
       <c r="E28" t="n">
-        <v>18.9034930701549</v>
+        <v>19.03246279885005</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1780627848067527</v>
+        <v>0.1762933377347777</v>
       </c>
       <c r="G28" t="n">
-        <v>6094.422153903753</v>
+        <v>6095.303739652777</v>
       </c>
       <c r="H28" t="n">
-        <v>2.77770090979737</v>
+        <v>0.253394558225512</v>
       </c>
     </row>
     <row r="29">
@@ -1238,25 +1238,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.313570272721289</v>
+        <v>6.432995370700447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04860641847257373</v>
+        <v>0.2688713017221109</v>
       </c>
       <c r="D29" t="n">
-        <v>1.871170428867202</v>
+        <v>1.761552886242911</v>
       </c>
       <c r="E29" t="n">
-        <v>18.8857204448849</v>
+        <v>17.4628568469448</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1777587223107544</v>
+        <v>0.1745948087709815</v>
       </c>
       <c r="G29" t="n">
-        <v>6086.140073505437</v>
+        <v>6038.05255592152</v>
       </c>
       <c r="H29" t="n">
-        <v>2.78708848921192</v>
+        <v>0.5101446849604629</v>
       </c>
     </row>
     <row r="30">
@@ -1266,25 +1266,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.320351983220734</v>
+        <v>7.495748257848629</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04890440377067179</v>
+        <v>0.932220499837528</v>
       </c>
       <c r="D30" t="n">
-        <v>1.877537609919935</v>
+        <v>1.777744755710687</v>
       </c>
       <c r="E30" t="n">
-        <v>18.89046073872452</v>
+        <v>17.8653481630113</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1778601003110239</v>
+        <v>0.1751151974549459</v>
       </c>
       <c r="G30" t="n">
-        <v>6088.705061288084</v>
+        <v>6054.356633468424</v>
       </c>
       <c r="H30" t="n">
-        <v>2.67204154945377</v>
+        <v>0.226379942272304</v>
       </c>
     </row>
     <row r="31">
@@ -1294,25 +1294,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.315824005904481</v>
+        <v>6.795294927269296</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04881466958949075</v>
+        <v>0.4349239140079351</v>
       </c>
       <c r="D31" t="n">
-        <v>1.863718342366992</v>
+        <v>1.745550391669204</v>
       </c>
       <c r="E31" t="n">
-        <v>18.88157159103059</v>
+        <v>17.37071053952761</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1776390191933082</v>
+        <v>0.1705649898804578</v>
       </c>
       <c r="G31" t="n">
-        <v>6083.620108204015</v>
+        <v>6032.027557652003</v>
       </c>
       <c r="H31" t="n">
-        <v>2.70574150124224</v>
+        <v>0.339408430208096</v>
       </c>
     </row>
     <row r="32">
@@ -1322,25 +1322,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.317060912501224</v>
+        <v>6.814120234341583</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04873341638752293</v>
+        <v>0.7102385827270249</v>
       </c>
       <c r="D32" t="n">
-        <v>1.879269228858563</v>
+        <v>1.78562187925048</v>
       </c>
       <c r="E32" t="n">
-        <v>18.89556608427774</v>
+        <v>18.57756907355118</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1779406524608795</v>
+        <v>0.1751707960672247</v>
       </c>
       <c r="G32" t="n">
-        <v>6090.127382183398</v>
+        <v>6076.072332153454</v>
       </c>
       <c r="H32" t="n">
-        <v>2.70519136560424</v>
+        <v>0.231092228087986</v>
       </c>
     </row>
     <row r="33">
@@ -1350,25 +1350,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.316423203289022</v>
+        <v>6.528641641700687</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04815666737113677</v>
+        <v>0.1570512204535138</v>
       </c>
       <c r="D33" t="n">
-        <v>1.922213812255796</v>
+        <v>1.877975435620426</v>
       </c>
       <c r="E33" t="n">
-        <v>18.90846280831843</v>
+        <v>17.3422909392338</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1779763835528098</v>
+        <v>0.1833614824450634</v>
       </c>
       <c r="G33" t="n">
-        <v>6100.455230971111</v>
+        <v>6055.880133756597</v>
       </c>
       <c r="H33" t="n">
-        <v>3.00223251436661</v>
+        <v>1.05568599016052</v>
       </c>
     </row>
     <row r="34">
@@ -1378,25 +1378,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.316135039402438</v>
+        <v>6.078291418320074</v>
       </c>
       <c r="C34" t="n">
-        <v>0.04817346138588485</v>
+        <v>0.440265591995756</v>
       </c>
       <c r="D34" t="n">
-        <v>1.931701285293808</v>
+        <v>1.921099418725807</v>
       </c>
       <c r="E34" t="n">
-        <v>18.92650798314169</v>
+        <v>20.46943660384178</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1781888542468975</v>
+        <v>0.1681254273386325</v>
       </c>
       <c r="G34" t="n">
-        <v>6106.459149672258</v>
+        <v>6154.952350167066</v>
       </c>
       <c r="H34" t="n">
-        <v>2.91264256412409</v>
+        <v>0.252761220295388</v>
       </c>
     </row>
     <row r="35">
@@ -1406,25 +1406,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.316798176658822</v>
+        <v>6.309365257592679</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04814951449040965</v>
+        <v>0.3065820592752569</v>
       </c>
       <c r="D35" t="n">
-        <v>1.934334586854831</v>
+        <v>1.922479784647967</v>
       </c>
       <c r="E35" t="n">
-        <v>18.92369456554913</v>
+        <v>19.58080330015235</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1781285082295299</v>
+        <v>0.1704809513645669</v>
       </c>
       <c r="G35" t="n">
-        <v>6106.019119996983</v>
+        <v>6128.339660701023</v>
       </c>
       <c r="H35" t="n">
-        <v>2.95238711227427</v>
+        <v>0.359930609107418</v>
       </c>
     </row>
     <row r="36">
@@ -1434,25 +1434,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.317272327703227</v>
+        <v>6.043881943195883</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04825233364147791</v>
+        <v>1.288060628325429</v>
       </c>
       <c r="D36" t="n">
-        <v>1.939170365122355</v>
+        <v>1.955539947271877</v>
       </c>
       <c r="E36" t="n">
-        <v>18.93899079860827</v>
+        <v>22.78905358849843</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1783629840950832</v>
+        <v>0.1765954303586355</v>
       </c>
       <c r="G36" t="n">
-        <v>6110.972587619264</v>
+        <v>6232.417465198479</v>
       </c>
       <c r="H36" t="n">
-        <v>2.81669527852269</v>
+        <v>0.148974957793566</v>
       </c>
     </row>
     <row r="37">
@@ -1462,25 +1462,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.318892003091754</v>
+        <v>6.971765387234967</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04817406480644117</v>
+        <v>0.1860334821323071</v>
       </c>
       <c r="D37" t="n">
-        <v>1.933135655602376</v>
+        <v>1.905152298361135</v>
       </c>
       <c r="E37" t="n">
-        <v>18.91299927937575</v>
+        <v>17.25525463599125</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1778818441018999</v>
+        <v>0.1787950998541555</v>
       </c>
       <c r="G37" t="n">
-        <v>6102.993945191172</v>
+        <v>6056.42362263935</v>
       </c>
       <c r="H37" t="n">
-        <v>3.00266096567875</v>
+        <v>0.891297083186036</v>
       </c>
     </row>
     <row r="38">
@@ -1490,25 +1490,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4.318274490070907</v>
+        <v>6.997640137330957</v>
       </c>
       <c r="C38" t="n">
-        <v>0.04820192656138891</v>
+        <v>0.1468343883701483</v>
       </c>
       <c r="D38" t="n">
-        <v>1.918578673925926</v>
+        <v>1.859147573079985</v>
       </c>
       <c r="E38" t="n">
-        <v>18.89947710325178</v>
+        <v>15.81381567802353</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1776462565207283</v>
+        <v>0.1821846950372256</v>
       </c>
       <c r="G38" t="n">
-        <v>6097.579920915917</v>
+        <v>6005.559627029532</v>
       </c>
       <c r="H38" t="n">
-        <v>3.01148729573122</v>
+        <v>1.42903551794724</v>
       </c>
     </row>
     <row r="39">
@@ -1518,25 +1518,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4.321061992491349</v>
+        <v>8.279567031541308</v>
       </c>
       <c r="C39" t="n">
-        <v>0.04844759014338127</v>
+        <v>0.2288584184182328</v>
       </c>
       <c r="D39" t="n">
-        <v>1.917261610923437</v>
+        <v>1.850192414231537</v>
       </c>
       <c r="E39" t="n">
-        <v>18.8938015369801</v>
+        <v>14.82037573321271</v>
       </c>
       <c r="F39" t="n">
-        <v>0.177648864290656</v>
+        <v>0.1857286492295934</v>
       </c>
       <c r="G39" t="n">
-        <v>6096.055343437616</v>
+        <v>5976.323857716475</v>
       </c>
       <c r="H39" t="n">
-        <v>3.02554890769167</v>
+        <v>0.8510593043139421</v>
       </c>
     </row>
     <row r="40">
@@ -1546,25 +1546,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.319455171965165</v>
+        <v>7.018904109619402</v>
       </c>
       <c r="C40" t="n">
-        <v>0.04842382453449408</v>
+        <v>0.6152146479770638</v>
       </c>
       <c r="D40" t="n">
-        <v>1.916584053611837</v>
+        <v>1.87324983667403</v>
       </c>
       <c r="E40" t="n">
-        <v>18.91286089491457</v>
+        <v>18.88121869903514</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1780245221102354</v>
+        <v>0.1717796417583546</v>
       </c>
       <c r="G40" t="n">
-        <v>6100.868367905789</v>
+        <v>6100.169840655624</v>
       </c>
       <c r="H40" t="n">
-        <v>2.83374222185619</v>
+        <v>0.243473089570795</v>
       </c>
     </row>
     <row r="41">
@@ -1574,25 +1574,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.318846328138065</v>
+        <v>6.947558662359848</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04812709990816965</v>
+        <v>0.1567202431375496</v>
       </c>
       <c r="D41" t="n">
-        <v>1.936605610480119</v>
+        <v>1.911632965561828</v>
       </c>
       <c r="E41" t="n">
-        <v>18.91280939725157</v>
+        <v>16.83792700062454</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1778689125949709</v>
+        <v>0.1814158817925176</v>
       </c>
       <c r="G41" t="n">
-        <v>6103.310331442909</v>
+        <v>6044.724665673213</v>
       </c>
       <c r="H41" t="n">
-        <v>3.03890731635146</v>
+        <v>1.16846334902229</v>
       </c>
     </row>
     <row r="42">
@@ -1602,25 +1602,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.318829479729201</v>
+        <v>7.0649733730938</v>
       </c>
       <c r="C42" t="n">
-        <v>0.04828825473037272</v>
+        <v>0.1823956109951668</v>
       </c>
       <c r="D42" t="n">
-        <v>1.916592457790657</v>
+        <v>1.858866027353403</v>
       </c>
       <c r="E42" t="n">
-        <v>18.90214586851435</v>
+        <v>16.58915641204019</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1776125386833933</v>
+        <v>0.1752120621856993</v>
       </c>
       <c r="G42" t="n">
-        <v>6098.005149637033</v>
+        <v>6027.68640620842</v>
       </c>
       <c r="H42" t="n">
-        <v>2.95525717961205</v>
+        <v>0.962265971702444</v>
       </c>
     </row>
     <row r="43">
@@ -1630,25 +1630,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.316468831570325</v>
+        <v>7.059606695067165</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0491664674970366</v>
+        <v>0.4498487574267199</v>
       </c>
       <c r="D43" t="n">
-        <v>1.83955680338601</v>
+        <v>1.691618582754316</v>
       </c>
       <c r="E43" t="n">
-        <v>18.86287106002196</v>
+        <v>16.30577343448005</v>
       </c>
       <c r="F43" t="n">
-        <v>0.177139727931445</v>
+        <v>0.1637366020621397</v>
       </c>
       <c r="G43" t="n">
-        <v>6073.818765448476</v>
+        <v>5988.894823800365</v>
       </c>
       <c r="H43" t="n">
-        <v>2.616243690095</v>
+        <v>0.33386521716698</v>
       </c>
     </row>
     <row r="44">
@@ -1658,25 +1658,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.295026187127315</v>
+        <v>4.662836986904338</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04833170599605553</v>
+        <v>0.09813000990113929</v>
       </c>
       <c r="D44" t="n">
-        <v>1.827952299070002</v>
+        <v>1.670744808450757</v>
       </c>
       <c r="E44" t="n">
-        <v>18.86051749364069</v>
+        <v>16.56459692139962</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1770353210394496</v>
+        <v>0.165984498049048</v>
       </c>
       <c r="G44" t="n">
-        <v>6069.684772004382</v>
+        <v>5986.876043879459</v>
       </c>
       <c r="H44" t="n">
-        <v>2.90008620878973</v>
+        <v>1.82062086044793</v>
       </c>
     </row>
     <row r="45">
@@ -1686,25 +1686,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4.304394449262394</v>
+        <v>4.812104670556126</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04795227173697619</v>
+        <v>0.08996436423490994</v>
       </c>
       <c r="D45" t="n">
-        <v>1.883972625912337</v>
+        <v>1.779210860070414</v>
       </c>
       <c r="E45" t="n">
-        <v>18.88397598053458</v>
+        <v>15.99506110621796</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1774283147164405</v>
+        <v>0.1779203434664508</v>
       </c>
       <c r="G45" t="n">
-        <v>6088.023578825847</v>
+        <v>5993.938869769135</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1166038912433</v>
+        <v>2.78721168570737</v>
       </c>
     </row>
     <row r="46">
@@ -1714,25 +1714,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.309694315820845</v>
+        <v>5.386844253629266</v>
       </c>
       <c r="C46" t="n">
-        <v>0.04797878212106625</v>
+        <v>0.09931040608725791</v>
       </c>
       <c r="D46" t="n">
-        <v>1.902419211351305</v>
+        <v>1.818022699395259</v>
       </c>
       <c r="E46" t="n">
-        <v>18.8902921900489</v>
+        <v>15.49895953905823</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1775354751779764</v>
+        <v>0.181316629289782</v>
       </c>
       <c r="G46" t="n">
-        <v>6092.779612424129</v>
+        <v>5987.083063455173</v>
       </c>
       <c r="H46" t="n">
-        <v>3.14008705946948</v>
+        <v>2.80065249015791</v>
       </c>
     </row>
     <row r="47">
@@ -1742,25 +1742,25 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>4.30954702884726</v>
+        <v>5.668733324503761</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04813117150862523</v>
+        <v>0.1051803726887497</v>
       </c>
       <c r="D47" t="n">
-        <v>1.880240162337055</v>
+        <v>1.761538687831909</v>
       </c>
       <c r="E47" t="n">
-        <v>18.87229403984621</v>
+        <v>14.35176747601286</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1772719103247287</v>
+        <v>0.1825458633978284</v>
       </c>
       <c r="G47" t="n">
-        <v>6084.793652619596</v>
+        <v>5944.475070718433</v>
       </c>
       <c r="H47" t="n">
-        <v>3.0712074312182</v>
+        <v>2.81941907010208</v>
       </c>
     </row>
     <row r="48">
@@ -1770,25 +1770,25 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>4.307688724435698</v>
+        <v>5.291047695970745</v>
       </c>
       <c r="C48" t="n">
-        <v>0.04804989115140432</v>
+        <v>0.1004090388329557</v>
       </c>
       <c r="D48" t="n">
-        <v>1.885333766303769</v>
+        <v>1.778416420300767</v>
       </c>
       <c r="E48" t="n">
-        <v>18.88069145447048</v>
+        <v>15.32580329645273</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1774073011704777</v>
+        <v>0.1799356515793479</v>
       </c>
       <c r="G48" t="n">
-        <v>6087.609278880422</v>
+        <v>5975.464170448033</v>
       </c>
       <c r="H48" t="n">
-        <v>3.09234494681636</v>
+        <v>2.75490412614591</v>
       </c>
     </row>
     <row r="49">
@@ -1798,25 +1798,25 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>4.306749815728869</v>
+        <v>4.915461888026083</v>
       </c>
       <c r="C49" t="n">
-        <v>0.047899797639316</v>
+        <v>0.0923664955844354</v>
       </c>
       <c r="D49" t="n">
-        <v>1.900012028381953</v>
+        <v>1.817042924323866</v>
       </c>
       <c r="E49" t="n">
-        <v>18.893425433031</v>
+        <v>16.30042305694604</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1775244833632097</v>
+        <v>0.1765964127873855</v>
       </c>
       <c r="G49" t="n">
-        <v>6093.066655436832</v>
+        <v>6009.26133571476</v>
       </c>
       <c r="H49" t="n">
-        <v>3.15101827470541</v>
+        <v>2.83234232389617</v>
       </c>
     </row>
     <row r="50">
@@ -1826,25 +1826,25 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.312840485658774</v>
+        <v>5.692482122072802</v>
       </c>
       <c r="C50" t="n">
-        <v>0.04819031091777943</v>
+        <v>0.2883260265192106</v>
       </c>
       <c r="D50" t="n">
-        <v>1.915195277690372</v>
+        <v>1.877524457785031</v>
       </c>
       <c r="E50" t="n">
-        <v>18.91955271027551</v>
+        <v>20.30469467371417</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1778929799717203</v>
+        <v>0.1561500949805216</v>
       </c>
       <c r="G50" t="n">
-        <v>6102.074584627592</v>
+        <v>6138.322446396372</v>
       </c>
       <c r="H50" t="n">
-        <v>2.91663217392493</v>
+        <v>0.3407906304816</v>
       </c>
     </row>
     <row r="51">
@@ -1854,25 +1854,25 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>4.308142087725127</v>
+        <v>5.278646817658459</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04805464303973454</v>
+        <v>0.1112239900653163</v>
       </c>
       <c r="D51" t="n">
-        <v>1.8971056948936</v>
+        <v>1.821387276177198</v>
       </c>
       <c r="E51" t="n">
-        <v>18.9016372398914</v>
+        <v>18.14405725429911</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1776783733374884</v>
+        <v>0.1674408197880956</v>
       </c>
       <c r="G51" t="n">
-        <v>6094.555971920622</v>
+        <v>6063.752239079069</v>
       </c>
       <c r="H51" t="n">
-        <v>3.01254498619231</v>
+        <v>1.44362392745231</v>
       </c>
     </row>
     <row r="52">
@@ -1882,25 +1882,25 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4.311977289777048</v>
+        <v>5.868740782582996</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04816159628901979</v>
+        <v>0.1414645534032355</v>
       </c>
       <c r="D52" t="n">
-        <v>1.904487456960327</v>
+        <v>1.83818591899159</v>
       </c>
       <c r="E52" t="n">
-        <v>18.90412364168389</v>
+        <v>18.04821696790889</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1777021419876592</v>
+        <v>0.1657777458898045</v>
       </c>
       <c r="G52" t="n">
-        <v>6096.508934832045</v>
+        <v>6065.075849290321</v>
       </c>
       <c r="H52" t="n">
-        <v>2.98163532735758</v>
+        <v>1.02502615461488</v>
       </c>
     </row>
     <row r="53">
@@ -1910,25 +1910,25 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.32385092279356</v>
+        <v>8.812569998014771</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04856612888728722</v>
+        <v>0.2621402942872946</v>
       </c>
       <c r="D53" t="n">
-        <v>1.900466292053929</v>
+        <v>1.805342214233186</v>
       </c>
       <c r="E53" t="n">
-        <v>18.88069593040991</v>
+        <v>14.01474367210537</v>
       </c>
       <c r="F53" t="n">
-        <v>0.177424084671548</v>
+        <v>0.1845694919488056</v>
       </c>
       <c r="G53" t="n">
-        <v>6090.48043779357</v>
+        <v>5945.603650662063</v>
       </c>
       <c r="H53" t="n">
-        <v>2.88699949310546</v>
+        <v>0.74699037533891</v>
       </c>
     </row>
     <row r="54">
@@ -1938,25 +1938,25 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.315942309134638</v>
+        <v>6.504553439924372</v>
       </c>
       <c r="C54" t="n">
-        <v>0.04873943672537711</v>
+        <v>1.165667087085181</v>
       </c>
       <c r="D54" t="n">
-        <v>1.883062634366864</v>
+        <v>1.803920022901974</v>
       </c>
       <c r="E54" t="n">
-        <v>18.90786121582346</v>
+        <v>20.46714786453909</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1776064437892071</v>
+        <v>0.147494770898941</v>
       </c>
       <c r="G54" t="n">
-        <v>6093.44975878311</v>
+        <v>6128.487667432417</v>
       </c>
       <c r="H54" t="n">
-        <v>2.66459236930907</v>
+        <v>0.171563783526198</v>
       </c>
     </row>
     <row r="55">
@@ -1966,25 +1966,25 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.311500605798701</v>
+        <v>6.36722027552769</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0487146156184406</v>
+        <v>0.1967594842796728</v>
       </c>
       <c r="D55" t="n">
-        <v>1.851590376168914</v>
+        <v>1.714939826279259</v>
       </c>
       <c r="E55" t="n">
-        <v>18.86997168526567</v>
+        <v>16.41308610410381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1771316735533478</v>
+        <v>0.1630309620140027</v>
       </c>
       <c r="G55" t="n">
-        <v>6078.148761102342</v>
+        <v>5994.879345207056</v>
       </c>
       <c r="H55" t="n">
-        <v>2.7702794483623</v>
+        <v>0.7996239030210039</v>
       </c>
     </row>
     <row r="56">
@@ -1994,25 +1994,25 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>4.309777056987245</v>
+        <v>5.472432394915499</v>
       </c>
       <c r="C56" t="n">
-        <v>0.04802231455549098</v>
+        <v>0.104939816058309</v>
       </c>
       <c r="D56" t="n">
-        <v>1.899018609251308</v>
+        <v>1.812694336129876</v>
       </c>
       <c r="E56" t="n">
-        <v>18.89102665901864</v>
+        <v>15.96834723594115</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1773939598544551</v>
+        <v>0.1730784827537784</v>
       </c>
       <c r="G56" t="n">
-        <v>6092.358619954418</v>
+        <v>5998.534024482971</v>
       </c>
       <c r="H56" t="n">
-        <v>3.09762911626663</v>
+        <v>2.49452853997614</v>
       </c>
     </row>
     <row r="57">
@@ -2022,25 +2022,25 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>4.310689202414983</v>
+        <v>5.792572348402187</v>
       </c>
       <c r="C57" t="n">
-        <v>0.04815814794653454</v>
+        <v>0.1196103018021945</v>
       </c>
       <c r="D57" t="n">
-        <v>1.892288797848064</v>
+        <v>1.801102695216696</v>
       </c>
       <c r="E57" t="n">
-        <v>18.89091569936786</v>
+        <v>16.58134596531059</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1773678352734945</v>
+        <v>0.1692469801070565</v>
       </c>
       <c r="G57" t="n">
-        <v>6091.215875380434</v>
+        <v>6014.722021042824</v>
       </c>
       <c r="H57" t="n">
-        <v>3.01052389829477</v>
+        <v>1.75602672355118</v>
       </c>
     </row>
     <row r="58">
@@ -2050,25 +2050,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>4.314772116834501</v>
+        <v>6.331899168454245</v>
       </c>
       <c r="C58" t="n">
-        <v>0.048244449214281</v>
+        <v>0.1863446810497986</v>
       </c>
       <c r="D58" t="n">
-        <v>1.908869352923811</v>
+        <v>1.848172893031716</v>
       </c>
       <c r="E58" t="n">
-        <v>18.90560456476441</v>
+        <v>17.9906659628882</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1776147822388874</v>
+        <v>0.1605613803962862</v>
       </c>
       <c r="G58" t="n">
-        <v>6097.605717263134</v>
+        <v>6064.851222579188</v>
       </c>
       <c r="H58" t="n">
-        <v>2.94950806024629</v>
+        <v>0.773971925319701</v>
       </c>
     </row>
     <row r="59">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>4.315080722060782</v>
+        <v>6.260994109402737</v>
       </c>
       <c r="C59" t="n">
-        <v>0.04841843312876247</v>
+        <v>0.4648379206044053</v>
       </c>
       <c r="D59" t="n">
-        <v>1.89930073248595</v>
+        <v>1.834893118095141</v>
       </c>
       <c r="E59" t="n">
-        <v>18.9089936240361</v>
+        <v>19.4802380533163</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1777978584104239</v>
+        <v>0.1602279290474068</v>
       </c>
       <c r="G59" t="n">
-        <v>6096.891448939736</v>
+        <v>6107.387925737326</v>
       </c>
       <c r="H59" t="n">
-        <v>2.8140587679005</v>
+        <v>0.270049412497364</v>
       </c>
     </row>
     <row r="60">
@@ -2106,25 +2106,25 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.316897493219924</v>
+        <v>6.339818898651389</v>
       </c>
       <c r="C60" t="n">
-        <v>0.04826478671449599</v>
+        <v>0.5576478884546745</v>
       </c>
       <c r="D60" t="n">
-        <v>1.925918468811587</v>
+        <v>1.904364535290729</v>
       </c>
       <c r="E60" t="n">
-        <v>18.92331160213926</v>
+        <v>20.27154781393143</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1779502184223013</v>
+        <v>0.1561203814588312</v>
       </c>
       <c r="G60" t="n">
-        <v>6104.739914086893</v>
+        <v>6143.13750084385</v>
       </c>
       <c r="H60" t="n">
-        <v>2.88061829355398</v>
+        <v>0.232330686944467</v>
       </c>
     </row>
     <row r="61">
@@ -2134,25 +2134,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.31814383821753</v>
+        <v>7.331974686207094</v>
       </c>
       <c r="C61" t="n">
-        <v>0.04839524999436855</v>
+        <v>0.1455368310648862</v>
       </c>
       <c r="D61" t="n">
-        <v>1.887473919393264</v>
+        <v>1.777541775460146</v>
       </c>
       <c r="E61" t="n">
-        <v>18.87544518700818</v>
+        <v>14.3007227748159</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1773601837541117</v>
+        <v>0.1853268753705607</v>
       </c>
       <c r="G61" t="n">
-        <v>6087.022473174286</v>
+        <v>5948.541558205051</v>
       </c>
       <c r="H61" t="n">
-        <v>2.92164558545536</v>
+        <v>1.53313469933983</v>
       </c>
     </row>
     <row r="62">
@@ -2162,25 +2162,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>4.316514383011529</v>
+        <v>6.667978805655325</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04825932141395992</v>
+        <v>0.1602523484841635</v>
       </c>
       <c r="D62" t="n">
-        <v>1.908969206595425</v>
+        <v>1.841425136522393</v>
       </c>
       <c r="E62" t="n">
-        <v>18.89953403899847</v>
+        <v>16.77310099127984</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1775803109493239</v>
+        <v>0.1735246065014688</v>
       </c>
       <c r="G62" t="n">
-        <v>6096.199011145101</v>
+        <v>6029.690642219642</v>
       </c>
       <c r="H62" t="n">
-        <v>2.96141714483515</v>
+        <v>1.08335126636479</v>
       </c>
     </row>
     <row r="63">
@@ -2190,25 +2190,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>4.318011304931786</v>
+        <v>7.152543922447351</v>
       </c>
       <c r="C63" t="n">
-        <v>0.04829765123541083</v>
+        <v>0.1393011307466823</v>
       </c>
       <c r="D63" t="n">
-        <v>1.899309197114864</v>
+        <v>1.807259438544891</v>
       </c>
       <c r="E63" t="n">
-        <v>18.88460145962972</v>
+        <v>14.81447053278142</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1774850195939565</v>
+        <v>0.1853115975925424</v>
       </c>
       <c r="G63" t="n">
-        <v>6091.132152281373</v>
+        <v>5968.318101935351</v>
       </c>
       <c r="H63" t="n">
-        <v>2.96054848886204</v>
+        <v>1.54960487568137</v>
       </c>
     </row>
     <row r="64">
@@ -2218,25 +2218,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.315425740402657</v>
+        <v>6.565794413889705</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0481645325538648</v>
+        <v>0.1382455877703973</v>
       </c>
       <c r="D64" t="n">
-        <v>1.919453776011612</v>
+        <v>1.861527641455689</v>
       </c>
       <c r="E64" t="n">
-        <v>18.90036821205665</v>
+        <v>15.88470135611923</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1776447331162492</v>
+        <v>0.1806490669642498</v>
       </c>
       <c r="G64" t="n">
-        <v>6097.851917797742</v>
+        <v>6006.85992477556</v>
       </c>
       <c r="H64" t="n">
-        <v>3.10546013751763</v>
+        <v>1.68384229957871</v>
       </c>
     </row>
     <row r="65">
@@ -2246,25 +2246,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>4.316673980434235</v>
+        <v>6.341707502266672</v>
       </c>
       <c r="C65" t="n">
-        <v>0.04797759227320326</v>
+        <v>0.1288678140135669</v>
       </c>
       <c r="D65" t="n">
-        <v>1.946822677725056</v>
+        <v>1.944760803267265</v>
       </c>
       <c r="E65" t="n">
-        <v>18.92166459974581</v>
+        <v>17.78352026682068</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1779577376325922</v>
+        <v>0.177388204833332</v>
       </c>
       <c r="G65" t="n">
-        <v>6106.739186938034</v>
+        <v>6076.735148524937</v>
       </c>
       <c r="H65" t="n">
-        <v>3.09930046979061</v>
+        <v>1.28253813614175</v>
       </c>
     </row>
     <row r="66">
@@ -2274,25 +2274,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.317168941223366</v>
+        <v>6.528713018703456</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04819104502876605</v>
+        <v>0.2366676002820794</v>
       </c>
       <c r="D66" t="n">
-        <v>1.927477758108672</v>
+        <v>1.898393977559081</v>
       </c>
       <c r="E66" t="n">
-        <v>18.91655467959407</v>
+        <v>18.61429618700964</v>
       </c>
       <c r="F66" t="n">
-        <v>0.177879895815198</v>
+        <v>0.1646361546821272</v>
       </c>
       <c r="G66" t="n">
-        <v>6103.172769514816</v>
+        <v>6093.668694612107</v>
       </c>
       <c r="H66" t="n">
-        <v>2.95450397354486</v>
+        <v>0.511256447296214</v>
       </c>
     </row>
     <row r="67">
@@ -2302,25 +2302,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>4.325765105380458</v>
+        <v>8.765852720140973</v>
       </c>
       <c r="C67" t="n">
-        <v>0.04833657166945877</v>
+        <v>0.2778131870500602</v>
       </c>
       <c r="D67" t="n">
-        <v>1.928641202997231</v>
+        <v>1.881144787361489</v>
       </c>
       <c r="E67" t="n">
-        <v>18.90030044440865</v>
+        <v>14.9735508321734</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1781300620517827</v>
+        <v>0.1992766620094996</v>
       </c>
       <c r="G67" t="n">
-        <v>6099.416302510062</v>
+        <v>5992.765320052279</v>
       </c>
       <c r="H67" t="n">
-        <v>2.87359330126455</v>
+        <v>0.601178617470614</v>
       </c>
     </row>
     <row r="68">
@@ -2330,25 +2330,25 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.318896047378692</v>
+        <v>6.769386249396902</v>
       </c>
       <c r="C68" t="n">
-        <v>0.04852861953212818</v>
+        <v>1.269478730882154</v>
       </c>
       <c r="D68" t="n">
-        <v>1.912149275346904</v>
+        <v>1.873525551724284</v>
       </c>
       <c r="E68" t="n">
-        <v>18.9201968367357</v>
+        <v>20.77919637211536</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1779826706532665</v>
+        <v>0.1598080923220026</v>
       </c>
       <c r="G68" t="n">
-        <v>6101.975348052154</v>
+        <v>6154.210578221587</v>
       </c>
       <c r="H68" t="n">
-        <v>2.73537896843353</v>
+        <v>0.159583930484488</v>
       </c>
     </row>
     <row r="69">
@@ -2358,25 +2358,25 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>4.312816250547189</v>
+        <v>6.152000414930959</v>
       </c>
       <c r="C69" t="n">
-        <v>0.04849445457125056</v>
+        <v>0.2289812588791804</v>
       </c>
       <c r="D69" t="n">
-        <v>1.876916607581745</v>
+        <v>1.776250261231461</v>
       </c>
       <c r="E69" t="n">
-        <v>18.89142833017342</v>
+        <v>17.97437652145565</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1776400676369424</v>
+        <v>0.1688204905571661</v>
       </c>
       <c r="G69" t="n">
-        <v>6088.504012531306</v>
+        <v>6053.232397846821</v>
       </c>
       <c r="H69" t="n">
-        <v>2.800989119887</v>
+        <v>0.492619204135463</v>
       </c>
     </row>
     <row r="70">
@@ -2386,25 +2386,25 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.311426755352072</v>
+        <v>5.624246344011832</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04798780167548408</v>
+        <v>0.1047707007518949</v>
       </c>
       <c r="D70" t="n">
-        <v>1.91592198371843</v>
+        <v>1.860004609251674</v>
       </c>
       <c r="E70" t="n">
-        <v>18.90492234338731</v>
+        <v>17.13889121217186</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1776223943093358</v>
+        <v>0.1736066059271084</v>
       </c>
       <c r="G70" t="n">
-        <v>6098.413462164373</v>
+        <v>6041.203012773684</v>
       </c>
       <c r="H70" t="n">
-        <v>3.09738489365224</v>
+        <v>1.8866864817192</v>
       </c>
     </row>
     <row r="71">
@@ -2414,25 +2414,25 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.312681821256368</v>
+        <v>5.623819363230496</v>
       </c>
       <c r="C71" t="n">
-        <v>0.04791329346590843</v>
+        <v>0.1017672935786498</v>
       </c>
       <c r="D71" t="n">
-        <v>1.931175988007108</v>
+        <v>1.901238208281496</v>
       </c>
       <c r="E71" t="n">
-        <v>18.91275795837804</v>
+        <v>17.33017714752143</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1782960095460588</v>
+        <v>0.1949392230151031</v>
       </c>
       <c r="G71" t="n">
-        <v>6102.737933859041</v>
+        <v>6061.532300305352</v>
       </c>
       <c r="H71" t="n">
-        <v>3.1322318318347</v>
+        <v>1.94816704212702</v>
       </c>
     </row>
     <row r="72">
@@ -2442,25 +2442,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>4.313848311523753</v>
+        <v>5.876603831312503</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04792893233896665</v>
+        <v>0.1123022529972411</v>
       </c>
       <c r="D72" t="n">
-        <v>1.943075235205927</v>
+        <v>1.932118762983631</v>
       </c>
       <c r="E72" t="n">
-        <v>18.91861132410456</v>
+        <v>17.42275237864374</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1779242721043241</v>
+        <v>0.1793082818910028</v>
       </c>
       <c r="G72" t="n">
-        <v>6105.436254690549</v>
+        <v>6063.03099879354</v>
       </c>
       <c r="H72" t="n">
-        <v>3.18485499819291</v>
+        <v>1.8118737325926</v>
       </c>
     </row>
     <row r="73">
@@ -2470,25 +2470,25 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.315526117075205</v>
+        <v>6.207494131573025</v>
       </c>
       <c r="C73" t="n">
-        <v>0.04799574511986528</v>
+        <v>0.1153032805285761</v>
       </c>
       <c r="D73" t="n">
-        <v>1.934144802957756</v>
+        <v>1.905706143139115</v>
       </c>
       <c r="E73" t="n">
-        <v>18.91217231026917</v>
+        <v>16.90874765938581</v>
       </c>
       <c r="F73" t="n">
-        <v>0.17797887174827</v>
+        <v>0.1863473192400819</v>
       </c>
       <c r="G73" t="n">
-        <v>6102.835915912</v>
+        <v>6046.285530995776</v>
       </c>
       <c r="H73" t="n">
-        <v>3.10155406238798</v>
+        <v>1.68182783171933</v>
       </c>
     </row>
     <row r="74">
@@ -2498,25 +2498,25 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>4.316065209298094</v>
+        <v>6.009062821045591</v>
       </c>
       <c r="C74" t="n">
-        <v>0.04825543701452862</v>
+        <v>0.6053815340235326</v>
       </c>
       <c r="D74" t="n">
-        <v>1.924405343366097</v>
+        <v>1.904945911429105</v>
       </c>
       <c r="E74" t="n">
-        <v>18.92499846307294</v>
+        <v>20.77047202103141</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1783980177649297</v>
+        <v>0.1813200691585025</v>
       </c>
       <c r="G74" t="n">
-        <v>6105.201571989315</v>
+        <v>6164.847208757652</v>
       </c>
       <c r="H74" t="n">
-        <v>2.85549959644728</v>
+        <v>0.194148859619208</v>
       </c>
     </row>
     <row r="75">
@@ -2526,25 +2526,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>4.315633506572141</v>
+        <v>6.501377818289246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.04842214567758839</v>
+        <v>0.2289781031557722</v>
       </c>
       <c r="D75" t="n">
-        <v>1.893048487625546</v>
+        <v>1.810819815899907</v>
       </c>
       <c r="E75" t="n">
-        <v>18.89654792463341</v>
+        <v>17.63495789268738</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1781144748232558</v>
+        <v>0.1862347443045022</v>
       </c>
       <c r="G75" t="n">
-        <v>6093.063023545095</v>
+        <v>6055.464409931673</v>
       </c>
       <c r="H75" t="n">
-        <v>2.84443845694704</v>
+        <v>0.53192897654066</v>
       </c>
     </row>
     <row r="76">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>4.316525298998835</v>
+        <v>6.309730892364043</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0482119658502654</v>
+        <v>0.298996755240498</v>
       </c>
       <c r="D76" t="n">
-        <v>1.925408939756365</v>
+        <v>1.897185546702602</v>
       </c>
       <c r="E76" t="n">
-        <v>18.91920805580592</v>
+        <v>19.3866752203402</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1776823358398554</v>
+        <v>0.1550626164461648</v>
       </c>
       <c r="G76" t="n">
-        <v>6103.461641018903</v>
+        <v>6113.28425161597</v>
       </c>
       <c r="H76" t="n">
-        <v>2.92632974766835</v>
+        <v>0.345032769938652</v>
       </c>
     </row>
     <row r="77">
@@ -2582,25 +2582,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4.316844759777302</v>
+        <v>6.638353980261886</v>
       </c>
       <c r="C77" t="n">
-        <v>0.04826053568028727</v>
+        <v>0.1737511949638729</v>
       </c>
       <c r="D77" t="n">
-        <v>1.912358200257542</v>
+        <v>1.853787117914282</v>
       </c>
       <c r="E77" t="n">
-        <v>18.9039573307119</v>
+        <v>17.35976080592208</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1779184930817547</v>
+        <v>0.1822206585869844</v>
       </c>
       <c r="G77" t="n">
-        <v>6097.939788216167</v>
+        <v>6052.294166336082</v>
       </c>
       <c r="H77" t="n">
-        <v>2.9357614761991</v>
+        <v>0.79147412220622</v>
       </c>
     </row>
     <row r="78">
@@ -2610,25 +2610,25 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>4.314055682518332</v>
+        <v>5.93882187674717</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0479631719833979</v>
+        <v>0.1047739415160798</v>
       </c>
       <c r="D78" t="n">
-        <v>1.928574470950387</v>
+        <v>1.889264256092499</v>
       </c>
       <c r="E78" t="n">
-        <v>18.9084862728674</v>
+        <v>16.64870074475089</v>
       </c>
       <c r="F78" t="n">
-        <v>0.177831840311125</v>
+        <v>0.1833857897857692</v>
       </c>
       <c r="G78" t="n">
-        <v>6101.107991489599</v>
+        <v>6033.925538982234</v>
       </c>
       <c r="H78" t="n">
-        <v>3.12011294405531</v>
+        <v>2.00865484702272</v>
       </c>
     </row>
     <row r="79">
@@ -2638,25 +2638,25 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>4.316579243995825</v>
+        <v>6.602791099889292</v>
       </c>
       <c r="C79" t="n">
-        <v>0.04816257734537636</v>
+        <v>0.1257602705728865</v>
       </c>
       <c r="D79" t="n">
-        <v>1.914482311159283</v>
+        <v>1.850618941107215</v>
       </c>
       <c r="E79" t="n">
-        <v>18.89862638810334</v>
+        <v>16.04301365480673</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1777179665447843</v>
+        <v>0.1850730740394148</v>
       </c>
       <c r="G79" t="n">
-        <v>6096.82773177694</v>
+        <v>6011.388784690359</v>
       </c>
       <c r="H79" t="n">
-        <v>3.01316049119435</v>
+        <v>1.53398809511508</v>
       </c>
     </row>
     <row r="80">
@@ -2666,25 +2666,25 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>4.317131335742208</v>
+        <v>6.243069987265697</v>
       </c>
       <c r="C80" t="n">
-        <v>0.04832584677076018</v>
+        <v>0.755513885431935</v>
       </c>
       <c r="D80" t="n">
-        <v>1.922128003725226</v>
+        <v>1.897928027816757</v>
       </c>
       <c r="E80" t="n">
-        <v>18.92393672123087</v>
+        <v>20.73898635713324</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1780369154765957</v>
+        <v>0.1605473072952039</v>
       </c>
       <c r="G80" t="n">
-        <v>6104.427308740963</v>
+        <v>6157.404470604038</v>
       </c>
       <c r="H80" t="n">
-        <v>2.82535554742737</v>
+        <v>0.176322269381262</v>
       </c>
     </row>
     <row r="81">
@@ -2694,25 +2694,25 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.323288519682967</v>
+        <v>8.399498802848523</v>
       </c>
       <c r="C81" t="n">
-        <v>0.04837829195161118</v>
+        <v>0.1971169202188895</v>
       </c>
       <c r="D81" t="n">
-        <v>1.916388710796884</v>
+        <v>1.84775850225125</v>
       </c>
       <c r="E81" t="n">
-        <v>18.89287374844066</v>
+        <v>14.72479276630994</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1777056363161692</v>
+        <v>0.1895762837314366</v>
       </c>
       <c r="G81" t="n">
-        <v>6095.777499043281</v>
+        <v>5974.475827916631</v>
       </c>
       <c r="H81" t="n">
-        <v>2.91982185705587</v>
+        <v>0.838242314385605</v>
       </c>
     </row>
     <row r="82">
@@ -2722,25 +2722,25 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.318913445452455</v>
+        <v>6.96541190642292</v>
       </c>
       <c r="C82" t="n">
-        <v>0.04820999134762821</v>
+        <v>0.1791959107893238</v>
       </c>
       <c r="D82" t="n">
-        <v>1.927710584917869</v>
+        <v>1.890772252301247</v>
       </c>
       <c r="E82" t="n">
-        <v>18.91040660993539</v>
+        <v>17.24658511393967</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1777453957556295</v>
+        <v>0.1749739269584643</v>
       </c>
       <c r="G82" t="n">
-        <v>6101.621349632853</v>
+        <v>6052.392594371201</v>
       </c>
       <c r="H82" t="n">
-        <v>2.97130298167136</v>
+        <v>0.800814033744865</v>
       </c>
     </row>
     <row r="83">
@@ -2750,25 +2750,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.321289363239109</v>
+        <v>7.550914484860778</v>
       </c>
       <c r="C83" t="n">
-        <v>0.04833771345624149</v>
+        <v>0.1913170509249418</v>
       </c>
       <c r="D83" t="n">
-        <v>1.918681889499679</v>
+        <v>1.861201903887189</v>
       </c>
       <c r="E83" t="n">
-        <v>18.90032078369653</v>
+        <v>16.02727305978169</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1777635550385878</v>
+        <v>0.1861580833798891</v>
       </c>
       <c r="G83" t="n">
-        <v>6097.961127221902</v>
+        <v>6014.622876192387</v>
       </c>
       <c r="H83" t="n">
-        <v>2.92209466161932</v>
+        <v>0.85421531661943</v>
       </c>
     </row>
     <row r="84">
@@ -2778,25 +2778,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>4.318305440110532</v>
+        <v>6.729916009461358</v>
       </c>
       <c r="C84" t="n">
-        <v>0.04836335952856454</v>
+        <v>0.6198696805208194</v>
       </c>
       <c r="D84" t="n">
-        <v>1.926198839208809</v>
+        <v>1.901732619688398</v>
       </c>
       <c r="E84" t="n">
-        <v>18.92035184218245</v>
+        <v>19.61865053192733</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1780891755701101</v>
+        <v>0.1699240307102578</v>
       </c>
       <c r="G84" t="n">
-        <v>6104.130981965744</v>
+        <v>6126.403107137127</v>
       </c>
       <c r="H84" t="n">
-        <v>2.88844194388467</v>
+        <v>0.204214115909806</v>
       </c>
     </row>
     <row r="85">
@@ -2806,25 +2806,25 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>4.317491867705257</v>
+        <v>6.747502845519016</v>
       </c>
       <c r="C85" t="n">
-        <v>0.04808306300838931</v>
+        <v>0.11380667284646</v>
       </c>
       <c r="D85" t="n">
-        <v>1.923276541728551</v>
+        <v>1.869793247917644</v>
       </c>
       <c r="E85" t="n">
-        <v>18.90101920698033</v>
+        <v>15.62680457486914</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1777550562335156</v>
+        <v>0.1880466450209262</v>
       </c>
       <c r="G85" t="n">
-        <v>6098.580989626761</v>
+        <v>6001.949384015127</v>
       </c>
       <c r="H85" t="n">
-        <v>3.04603708148807</v>
+        <v>1.70938169944441</v>
       </c>
     </row>
     <row r="86">
@@ -2834,25 +2834,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>4.315012262109082</v>
+        <v>6.179853670429219</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04802936241939648</v>
+        <v>0.1056542677368843</v>
       </c>
       <c r="D86" t="n">
-        <v>1.92124506444448</v>
+        <v>1.868104284140812</v>
       </c>
       <c r="E86" t="n">
-        <v>18.90296979755569</v>
+        <v>16.23021629736823</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1777213104907</v>
+        <v>0.1838757763857329</v>
       </c>
       <c r="G86" t="n">
-        <v>6098.762395114431</v>
+        <v>6017.980224702532</v>
       </c>
       <c r="H86" t="n">
-        <v>3.07148138706167</v>
+        <v>1.89585260850444</v>
       </c>
     </row>
     <row r="87">
@@ -2862,25 +2862,25 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>4.31832624063167</v>
+        <v>6.810116790945084</v>
       </c>
       <c r="C87" t="n">
-        <v>0.04813234017718886</v>
+        <v>0.1314501851021197</v>
       </c>
       <c r="D87" t="n">
-        <v>1.927859467514838</v>
+        <v>1.888073538648735</v>
       </c>
       <c r="E87" t="n">
-        <v>18.9072181541433</v>
+        <v>16.5107311963216</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1782107269865067</v>
+        <v>0.1978035897902725</v>
       </c>
       <c r="G87" t="n">
-        <v>6101.012354797437</v>
+        <v>6037.118371271473</v>
       </c>
       <c r="H87" t="n">
-        <v>3.00448903828198</v>
+        <v>1.23376717319889</v>
       </c>
     </row>
     <row r="88">
@@ -2890,25 +2890,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>4.317136121560857</v>
+        <v>6.359744123274387</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04827332591059656</v>
+        <v>0.3522594351966961</v>
       </c>
       <c r="D88" t="n">
-        <v>1.919891435498417</v>
+        <v>1.883755232697518</v>
       </c>
       <c r="E88" t="n">
-        <v>18.91619855521959</v>
+        <v>19.24824166088531</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1781234436254303</v>
+        <v>0.1763177159206348</v>
       </c>
       <c r="G88" t="n">
-        <v>6102.167763264142</v>
+        <v>6113.233251211796</v>
       </c>
       <c r="H88" t="n">
-        <v>2.87449073360687</v>
+        <v>0.279264444621955</v>
       </c>
     </row>
     <row r="89">
@@ -2918,25 +2918,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>4.316907387723241</v>
+        <v>6.673661086550048</v>
       </c>
       <c r="C89" t="n">
-        <v>0.04811555178235131</v>
+        <v>0.1341807370832207</v>
       </c>
       <c r="D89" t="n">
-        <v>1.933780792335253</v>
+        <v>1.903786639982066</v>
       </c>
       <c r="E89" t="n">
-        <v>18.91139693897959</v>
+        <v>16.79722906866058</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1778443351470577</v>
+        <v>0.1824667309636149</v>
       </c>
       <c r="G89" t="n">
-        <v>6102.564430305391</v>
+        <v>6041.326761165228</v>
       </c>
       <c r="H89" t="n">
-        <v>3.0863651456059</v>
+        <v>1.24954841494994</v>
       </c>
     </row>
     <row r="90">
@@ -2946,25 +2946,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>4.312927728026631</v>
+        <v>6.526003095768188</v>
       </c>
       <c r="C90" t="n">
-        <v>0.04926348497700928</v>
+        <v>0.3806846343207437</v>
       </c>
       <c r="D90" t="n">
-        <v>1.82266309383933</v>
+        <v>1.662587785686247</v>
       </c>
       <c r="E90" t="n">
-        <v>18.85545435390917</v>
+        <v>16.41182750986338</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1778025240887131</v>
+        <v>0.1870246599888643</v>
       </c>
       <c r="G90" t="n">
-        <v>6067.897303718172</v>
+        <v>5991.68982845278</v>
       </c>
       <c r="H90" t="n">
-        <v>2.55030054358248</v>
+        <v>0.302850107056901</v>
       </c>
     </row>
     <row r="91">
@@ -2974,25 +2974,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.309552050964535</v>
+        <v>5.710954961564324</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04842777114531048</v>
+        <v>0.1550732667974405</v>
       </c>
       <c r="D91" t="n">
-        <v>1.869579255935931</v>
+        <v>1.761287936148771</v>
       </c>
       <c r="E91" t="n">
-        <v>18.88753341420919</v>
+        <v>17.83783484371813</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1782210084185524</v>
+        <v>0.1929894816034917</v>
       </c>
       <c r="G91" t="n">
-        <v>6086.296125741545</v>
+        <v>6052.853231814458</v>
       </c>
       <c r="H91" t="n">
-        <v>2.81499699402017</v>
+        <v>0.64241296082456</v>
       </c>
     </row>
     <row r="92">
@@ -3002,25 +3002,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>4.314435208263457</v>
+        <v>5.914007863674217</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0478873190547058</v>
+        <v>0.09588650869348037</v>
       </c>
       <c r="D92" t="n">
-        <v>1.936021222978598</v>
+        <v>1.902860151704317</v>
       </c>
       <c r="E92" t="n">
-        <v>18.90825593951171</v>
+        <v>15.77023547083729</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1777708353941012</v>
+        <v>0.1848997512513174</v>
       </c>
       <c r="G92" t="n">
-        <v>6101.797259466179</v>
+        <v>6008.105144519763</v>
       </c>
       <c r="H92" t="n">
-        <v>3.18870391451059</v>
+        <v>2.57715102482897</v>
       </c>
     </row>
     <row r="93">
@@ -3030,25 +3030,25 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.316738150788997</v>
+        <v>6.356410647010561</v>
       </c>
       <c r="C93" t="n">
-        <v>0.04799844549817538</v>
+        <v>0.1225338158539639</v>
       </c>
       <c r="D93" t="n">
-        <v>1.943843724164012</v>
+        <v>1.936628478043054</v>
       </c>
       <c r="E93" t="n">
-        <v>18.9203527263991</v>
+        <v>17.79623565550208</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1779223060895702</v>
+        <v>0.1780918323303303</v>
       </c>
       <c r="G93" t="n">
-        <v>6106.078048572756</v>
+        <v>6075.512374469155</v>
       </c>
       <c r="H93" t="n">
-        <v>3.07678936276382</v>
+        <v>1.15154053682265</v>
       </c>
     </row>
     <row r="94">
@@ -3058,25 +3058,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.316120988914189</v>
+        <v>6.413144719065858</v>
       </c>
       <c r="C94" t="n">
-        <v>0.04794349247488627</v>
+        <v>0.1008926488542092</v>
       </c>
       <c r="D94" t="n">
-        <v>1.934963796753514</v>
+        <v>1.898295489639299</v>
       </c>
       <c r="E94" t="n">
-        <v>18.90620734296519</v>
+        <v>15.44390723818415</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1777840118251071</v>
+        <v>0.187335419455446</v>
       </c>
       <c r="G94" t="n">
-        <v>6101.185688886831</v>
+        <v>5998.800602968942</v>
       </c>
       <c r="H94" t="n">
-        <v>3.15213012155247</v>
+        <v>2.25286518026396</v>
       </c>
     </row>
     <row r="95">
@@ -3086,25 +3086,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.322276651068234</v>
+        <v>8.203149262631117</v>
       </c>
       <c r="C95" t="n">
-        <v>0.04817098412458783</v>
+        <v>0.1460001321048488</v>
       </c>
       <c r="D95" t="n">
-        <v>1.935708716062795</v>
+        <v>1.897463557368371</v>
       </c>
       <c r="E95" t="n">
-        <v>18.90408177510247</v>
+        <v>14.9471757959741</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1777188027945207</v>
+        <v>0.1858510229074076</v>
       </c>
       <c r="G95" t="n">
-        <v>6100.808678642466</v>
+        <v>5985.071689363774</v>
       </c>
       <c r="H95" t="n">
-        <v>3.01701234054743</v>
+        <v>1.09567557107393</v>
       </c>
     </row>
     <row r="96">
@@ -3114,25 +3114,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>4.314753907541797</v>
+        <v>5.48997320970708</v>
       </c>
       <c r="C96" t="n">
-        <v>0.04809859454484427</v>
+        <v>0.3726427686677415</v>
       </c>
       <c r="D96" t="n">
-        <v>1.934994843281515</v>
+        <v>1.934872581329767</v>
       </c>
       <c r="E96" t="n">
-        <v>18.93111090922506</v>
+        <v>21.21864166082685</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1783787156244561</v>
+        <v>0.1790019130146873</v>
       </c>
       <c r="G96" t="n">
-        <v>6108.20042628275</v>
+        <v>6182.345206562</v>
       </c>
       <c r="H96" t="n">
-        <v>2.91651809463596</v>
+        <v>0.213536185678407</v>
       </c>
     </row>
     <row r="97">
@@ -3142,25 +3142,25 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>4.316563929137025</v>
+        <v>6.192009354996651</v>
       </c>
       <c r="C97" t="n">
-        <v>0.04789387695653471</v>
+        <v>0.1060698567421737</v>
       </c>
       <c r="D97" t="n">
-        <v>1.957103364547157</v>
+        <v>1.973498135424981</v>
       </c>
       <c r="E97" t="n">
-        <v>18.92595045797046</v>
+        <v>17.68304958917001</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1781908831658797</v>
+        <v>0.1888835977293804</v>
       </c>
       <c r="G97" t="n">
-        <v>6108.9594943547</v>
+        <v>6080.438008929081</v>
       </c>
       <c r="H97" t="n">
-        <v>3.14820376093388</v>
+        <v>1.50270604309358</v>
       </c>
     </row>
     <row r="98">
@@ -3170,25 +3170,25 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>4.316129927252462</v>
+        <v>6.114357781300491</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04788336661649724</v>
+        <v>0.1014860392668516</v>
       </c>
       <c r="D98" t="n">
-        <v>1.95429301151644</v>
+        <v>1.963156516278036</v>
       </c>
       <c r="E98" t="n">
-        <v>18.92337906659881</v>
+        <v>17.3443413805814</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1781088654503239</v>
+        <v>0.1878274680502259</v>
       </c>
       <c r="G98" t="n">
-        <v>6107.926690930589</v>
+        <v>6067.45670411009</v>
       </c>
       <c r="H98" t="n">
-        <v>3.16219170706363</v>
+        <v>1.74961649664086</v>
       </c>
     </row>
     <row r="99">
@@ -3198,25 +3198,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>4.315990433728557</v>
+        <v>5.70588523410624</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0477129510811475</v>
+        <v>0.08639944647796455</v>
       </c>
       <c r="D99" t="n">
-        <v>1.978871336951456</v>
+        <v>2.032673194208344</v>
       </c>
       <c r="E99" t="n">
-        <v>18.93312156750293</v>
+        <v>16.84859270722221</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1782423726055831</v>
+        <v>0.1902795235029049</v>
       </c>
       <c r="G99" t="n">
-        <v>6112.331462233848</v>
+        <v>6060.427845166996</v>
       </c>
       <c r="H99" t="n">
-        <v>3.3083284254772</v>
+        <v>2.77489352784484</v>
       </c>
     </row>
     <row r="100">
@@ -3226,25 +3226,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4.315213723307379</v>
+        <v>5.741225073992491</v>
       </c>
       <c r="C100" t="n">
-        <v>0.04798227095489062</v>
+        <v>0.1572463226900225</v>
       </c>
       <c r="D100" t="n">
-        <v>1.945544201540035</v>
+        <v>1.955127140111522</v>
       </c>
       <c r="E100" t="n">
-        <v>18.92949759743087</v>
+        <v>19.84157318223468</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1784865519832486</v>
+        <v>0.1883887592595875</v>
       </c>
       <c r="G100" t="n">
-        <v>6109.035862689682</v>
+        <v>6146.045930847216</v>
       </c>
       <c r="H100" t="n">
-        <v>3.02166898627201</v>
+        <v>0.528152040791848</v>
       </c>
     </row>
     <row r="101">
@@ -3254,25 +3254,25 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>4.311134734299544</v>
+        <v>5.959645878371516</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04827498763287719</v>
+        <v>0.1094068953341177</v>
       </c>
       <c r="D101" t="n">
-        <v>1.880047102213155</v>
+        <v>1.773200518055118</v>
       </c>
       <c r="E101" t="n">
-        <v>18.88361789419789</v>
+        <v>16.3490477881075</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1774568341747476</v>
+        <v>0.1803649567579982</v>
       </c>
       <c r="G101" t="n">
-        <v>6087.374958162839</v>
+        <v>6005.048448899766</v>
       </c>
       <c r="H101" t="n">
-        <v>2.92325784228774</v>
+        <v>1.37479933566856</v>
       </c>
     </row>
     <row r="102">
@@ -3282,25 +3282,25 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4.306390293433568</v>
+        <v>4.232308917403444</v>
       </c>
       <c r="C102" t="n">
-        <v>0.04800995732106027</v>
+        <v>0.160774632870809</v>
       </c>
       <c r="D102" t="n">
-        <v>1.90765978619605</v>
+        <v>1.870964259035993</v>
       </c>
       <c r="E102" t="n">
-        <v>18.92634623679303</v>
+        <v>22.16402439549771</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1781082906599325</v>
+        <v>0.1783064318880417</v>
       </c>
       <c r="G102" t="n">
-        <v>6102.477263082686</v>
+        <v>6194.049204347095</v>
       </c>
       <c r="H102" t="n">
-        <v>2.89829358035377</v>
+        <v>0.341065205690717</v>
       </c>
     </row>
     <row r="103">
@@ -3310,25 +3310,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>4.312009559496916</v>
+        <v>5.09811199246618</v>
       </c>
       <c r="C103" t="n">
-        <v>0.04772384653231827</v>
+        <v>0.08136071533222054</v>
       </c>
       <c r="D103" t="n">
-        <v>1.945621577602852</v>
+        <v>1.929138138860742</v>
       </c>
       <c r="E103" t="n">
-        <v>18.91365113616184</v>
+        <v>15.87943587353039</v>
       </c>
       <c r="F103" t="n">
-        <v>0.1778975886168285</v>
+        <v>0.1869487987867781</v>
       </c>
       <c r="G103" t="n">
-        <v>6104.153775172731</v>
+        <v>6014.197911893441</v>
       </c>
       <c r="H103" t="n">
-        <v>3.29307968257645</v>
+        <v>3.30088960502347</v>
       </c>
     </row>
     <row r="104">
@@ -3338,25 +3338,25 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>4.314344872242937</v>
+        <v>5.740854834358804</v>
       </c>
       <c r="C104" t="n">
-        <v>0.04785148343077604</v>
+        <v>0.09602882089549017</v>
       </c>
       <c r="D104" t="n">
-        <v>1.950106512699915</v>
+        <v>1.954383816962579</v>
       </c>
       <c r="E104" t="n">
-        <v>18.92291278536717</v>
+        <v>17.69574996087983</v>
       </c>
       <c r="F104" t="n">
-        <v>0.1783763630773746</v>
+        <v>0.1962870250494864</v>
       </c>
       <c r="G104" t="n">
-        <v>6107.54618494155</v>
+        <v>6080.68665318128</v>
       </c>
       <c r="H104" t="n">
-        <v>3.16899851207104</v>
+        <v>1.8223075349979</v>
       </c>
     </row>
     <row r="105">
@@ -3366,25 +3366,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>4.315348524407213</v>
+        <v>6.072464817799016</v>
       </c>
       <c r="C105" t="n">
-        <v>0.04792338801177513</v>
+        <v>0.0999646916644171</v>
       </c>
       <c r="D105" t="n">
-        <v>1.940586660450748</v>
+        <v>1.921328904339617</v>
       </c>
       <c r="E105" t="n">
-        <v>18.91454855611947</v>
+        <v>16.73968993543891</v>
       </c>
       <c r="F105" t="n">
-        <v>0.1779153438532751</v>
+        <v>0.1856933257881677</v>
       </c>
       <c r="G105" t="n">
-        <v>6104.09264071193</v>
+        <v>6041.498848380591</v>
       </c>
       <c r="H105" t="n">
-        <v>3.14097250003397</v>
+        <v>1.96194555980091</v>
       </c>
     </row>
     <row r="106">
@@ -3394,25 +3394,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.314420005212279</v>
+        <v>5.744576392697595</v>
       </c>
       <c r="C106" t="n">
-        <v>0.0479841720614206</v>
+        <v>0.1319448741748089</v>
       </c>
       <c r="D106" t="n">
-        <v>1.939061570173474</v>
+        <v>1.93362219015636</v>
       </c>
       <c r="E106" t="n">
-        <v>18.92493475911498</v>
+        <v>19.36622127240314</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1781676299698055</v>
+        <v>0.1776859867083486</v>
       </c>
       <c r="G106" t="n">
-        <v>6106.860434747367</v>
+        <v>6123.294931243267</v>
       </c>
       <c r="H106" t="n">
-        <v>3.03537594812265</v>
+        <v>0.728008177247385</v>
       </c>
     </row>
     <row r="107">
@@ -3422,25 +3422,25 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4.312072346630474</v>
+        <v>6.13711832839414</v>
       </c>
       <c r="C107" t="n">
-        <v>0.04836885644265217</v>
+        <v>0.1225570730834141</v>
       </c>
       <c r="D107" t="n">
-        <v>1.876439128527106</v>
+        <v>1.766156321843754</v>
       </c>
       <c r="E107" t="n">
-        <v>18.88222481274761</v>
+        <v>16.42532002171659</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1775197637976823</v>
+        <v>0.1809540200651601</v>
       </c>
       <c r="G107" t="n">
-        <v>6086.396989471655</v>
+        <v>6007.120053806785</v>
       </c>
       <c r="H107" t="n">
-        <v>2.88078171651578</v>
+        <v>1.12504801934377</v>
       </c>
     </row>
     <row r="108">
@@ -3450,25 +3450,25 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4.303381326814936</v>
+        <v>4.009004034526926</v>
       </c>
       <c r="C108" t="n">
-        <v>0.04827359686582832</v>
+        <v>0.3515725667634386</v>
       </c>
       <c r="D108" t="n">
-        <v>1.876302632463027</v>
+        <v>1.803201171987525</v>
       </c>
       <c r="E108" t="n">
-        <v>18.91869918430942</v>
+        <v>22.59144281991816</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1781994739170858</v>
+        <v>0.1954084069628082</v>
       </c>
       <c r="G108" t="n">
-        <v>6094.386569427032</v>
+        <v>6196.12015325206</v>
       </c>
       <c r="H108" t="n">
-        <v>2.72768174541495</v>
+        <v>0.181135974356239</v>
       </c>
     </row>
     <row r="109">
@@ -3478,25 +3478,25 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4.323622763997703</v>
+        <v>8.315097254290221</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04823061533299319</v>
+        <v>0.1432395617229</v>
       </c>
       <c r="D109" t="n">
-        <v>1.921142622325763</v>
+        <v>1.858298449171036</v>
       </c>
       <c r="E109" t="n">
-        <v>18.8945840984513</v>
+        <v>14.54246707806319</v>
       </c>
       <c r="F109" t="n">
-        <v>0.1777339924334612</v>
+        <v>0.1912799864669872</v>
       </c>
       <c r="G109" t="n">
-        <v>6096.797417296302</v>
+        <v>5970.128399913538</v>
       </c>
       <c r="H109" t="n">
-        <v>2.90380579799505</v>
+        <v>1.08342035615158</v>
       </c>
     </row>
     <row r="110">
@@ -3506,25 +3506,25 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4.314013714595263</v>
+        <v>5.850485027937223</v>
       </c>
       <c r="C110" t="n">
-        <v>0.047914867170533</v>
+        <v>0.09693033539041541</v>
       </c>
       <c r="D110" t="n">
-        <v>1.932984409353439</v>
+        <v>1.898923539299396</v>
       </c>
       <c r="E110" t="n">
-        <v>18.90970759193944</v>
+        <v>16.44343723791997</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1777217005615936</v>
+        <v>0.1802823651861203</v>
       </c>
       <c r="G110" t="n">
-        <v>6101.862884381513</v>
+        <v>6026.882396198893</v>
       </c>
       <c r="H110" t="n">
-        <v>3.1523803778439</v>
+        <v>2.25794239602877</v>
       </c>
     </row>
     <row r="111">
@@ -3534,25 +3534,25 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>4.314605545610169</v>
+        <v>5.912222759502225</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04790245013647931</v>
+        <v>0.09671127632669722</v>
       </c>
       <c r="D111" t="n">
-        <v>1.937519144962274</v>
+        <v>1.912135074852097</v>
       </c>
       <c r="E111" t="n">
-        <v>18.91224323462298</v>
+        <v>16.5328918549204</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1779826910276278</v>
+        <v>0.1894280212049796</v>
       </c>
       <c r="G111" t="n">
-        <v>6103.171689320587</v>
+        <v>6035.201525506565</v>
       </c>
       <c r="H111" t="n">
-        <v>3.15122953833996</v>
+        <v>2.19774172143292</v>
       </c>
     </row>
     <row r="112">
@@ -3562,25 +3562,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>4.315861218080519</v>
+        <v>5.943897734837169</v>
       </c>
       <c r="C112" t="n">
-        <v>0.04794640233923779</v>
+        <v>0.1368722251660469</v>
       </c>
       <c r="D112" t="n">
-        <v>1.952700508783515</v>
+        <v>1.970808956589065</v>
       </c>
       <c r="E112" t="n">
-        <v>18.93066331245877</v>
+        <v>19.38612952423834</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1780695785255477</v>
+        <v>0.1671431268267925</v>
       </c>
       <c r="G112" t="n">
-        <v>6109.850437040224</v>
+        <v>6127.925500461984</v>
       </c>
       <c r="H112" t="n">
-        <v>3.07356261810528</v>
+        <v>0.742917245213319</v>
       </c>
     </row>
     <row r="113">
@@ -3590,25 +3590,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>4.316454801046412</v>
+        <v>6.297178741764204</v>
       </c>
       <c r="C113" t="n">
-        <v>0.04793893273697752</v>
+        <v>0.1030937854592268</v>
       </c>
       <c r="D113" t="n">
-        <v>1.942030055257431</v>
+        <v>1.923117366668919</v>
       </c>
       <c r="E113" t="n">
-        <v>18.91372739740403</v>
+        <v>16.39601442487951</v>
       </c>
       <c r="F113" t="n">
-        <v>0.177902741713445</v>
+        <v>0.1865764222041317</v>
       </c>
       <c r="G113" t="n">
-        <v>6104.021105881481</v>
+        <v>6031.770057902782</v>
       </c>
       <c r="H113" t="n">
-        <v>3.13396860934505</v>
+        <v>1.97067710638215</v>
       </c>
     </row>
     <row r="114">
@@ -3618,25 +3618,25 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>4.316086949010645</v>
+        <v>6.280415748783794</v>
       </c>
       <c r="C114" t="n">
-        <v>0.04797444423674858</v>
+        <v>0.1058156506014517</v>
       </c>
       <c r="D114" t="n">
-        <v>1.936432704053836</v>
+        <v>1.908712649740083</v>
       </c>
       <c r="E114" t="n">
-        <v>18.9116360576526</v>
+        <v>16.53165913752887</v>
       </c>
       <c r="F114" t="n">
-        <v>0.1777679224882152</v>
+        <v>0.1812990275530441</v>
       </c>
       <c r="G114" t="n">
-        <v>6102.823576771575</v>
+        <v>6032.119653434231</v>
       </c>
       <c r="H114" t="n">
-        <v>3.1122114096255</v>
+        <v>1.84003353139668</v>
       </c>
     </row>
     <row r="115">
@@ -3646,25 +3646,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>4.317283212836435</v>
+        <v>6.650595989600975</v>
       </c>
       <c r="C115" t="n">
-        <v>0.04798649131191814</v>
+        <v>0.1049849359328666</v>
       </c>
       <c r="D115" t="n">
-        <v>1.93493569566799</v>
+        <v>1.899509798181093</v>
       </c>
       <c r="E115" t="n">
-        <v>18.90699839469947</v>
+        <v>15.64597940632692</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1777723548831116</v>
+        <v>0.1865444285332002</v>
       </c>
       <c r="G115" t="n">
-        <v>6101.431092894141</v>
+        <v>6005.292309471233</v>
       </c>
       <c r="H115" t="n">
-        <v>3.10899176179645</v>
+        <v>1.92531519837193</v>
       </c>
     </row>
     <row r="116">
@@ -3674,25 +3674,25 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>4.317105998671439</v>
+        <v>6.254325785522465</v>
       </c>
       <c r="C116" t="n">
-        <v>0.04817261039078004</v>
+        <v>0.2984421430268943</v>
       </c>
       <c r="D116" t="n">
-        <v>1.932072595497234</v>
+        <v>1.916097649263267</v>
       </c>
       <c r="E116" t="n">
-        <v>18.92272041668266</v>
+        <v>19.56925044605747</v>
       </c>
       <c r="F116" t="n">
-        <v>0.1779727556077147</v>
+        <v>0.1647428484325305</v>
       </c>
       <c r="G116" t="n">
-        <v>6105.411275295749</v>
+        <v>6124.982128389202</v>
       </c>
       <c r="H116" t="n">
-        <v>2.92688861331319</v>
+        <v>0.30436273812747</v>
       </c>
     </row>
     <row r="117">
@@ -3702,25 +3702,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.317829211383603</v>
+        <v>6.653937171657662</v>
       </c>
       <c r="C117" t="n">
-        <v>0.04811851369084443</v>
+        <v>0.1465297027769213</v>
       </c>
       <c r="D117" t="n">
-        <v>1.932979091866365</v>
+        <v>1.906478464280706</v>
       </c>
       <c r="E117" t="n">
-        <v>18.91457197569712</v>
+        <v>17.61177186225633</v>
       </c>
       <c r="F117" t="n">
-        <v>0.1777834105507985</v>
+        <v>0.1747564441279329</v>
       </c>
       <c r="G117" t="n">
-        <v>6103.315643923604</v>
+        <v>6064.995744745886</v>
       </c>
       <c r="H117" t="n">
-        <v>3.00171055985147</v>
+        <v>0.881900837492516</v>
       </c>
     </row>
     <row r="118">
@@ -3730,25 +3730,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>4.317085334374782</v>
+        <v>6.413621784491395</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04818796545552571</v>
+        <v>0.2224753721097688</v>
       </c>
       <c r="D118" t="n">
-        <v>1.927089129383399</v>
+        <v>1.897946922621936</v>
       </c>
       <c r="E118" t="n">
-        <v>18.91728641548455</v>
+        <v>18.80339592845639</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1776296703541239</v>
+        <v>0.1560754489882244</v>
       </c>
       <c r="G118" t="n">
-        <v>6103.190667222864</v>
+        <v>6096.216763463937</v>
       </c>
       <c r="H118" t="n">
-        <v>2.9415718980493</v>
+        <v>0.447644242404805</v>
       </c>
     </row>
     <row r="119">
@@ -3758,25 +3758,25 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.317350907967533</v>
+        <v>6.524115589275808</v>
       </c>
       <c r="C119" t="n">
-        <v>0.04797053249609531</v>
+        <v>0.1075050808497093</v>
       </c>
       <c r="D119" t="n">
-        <v>1.941664611647634</v>
+        <v>1.92144707534467</v>
       </c>
       <c r="E119" t="n">
-        <v>18.91310492703661</v>
+        <v>16.30093969002806</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1778455239276641</v>
+        <v>0.1848837829067094</v>
       </c>
       <c r="G119" t="n">
-        <v>6103.80533793559</v>
+        <v>6028.2446461952</v>
       </c>
       <c r="H119" t="n">
-        <v>3.11248029954743</v>
+        <v>1.80081681804402</v>
       </c>
     </row>
     <row r="120">
@@ -3786,25 +3786,25 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>4.318471342129223</v>
+        <v>6.181478312521614</v>
       </c>
       <c r="C120" t="n">
-        <v>0.04816827467614489</v>
+        <v>0.9265109619430165</v>
       </c>
       <c r="D120" t="n">
-        <v>1.950622627058209</v>
+        <v>1.980399491236556</v>
       </c>
       <c r="E120" t="n">
-        <v>18.93924555344228</v>
+        <v>21.84879834053238</v>
       </c>
       <c r="F120" t="n">
-        <v>0.1781326373301002</v>
+        <v>0.1520409769688657</v>
       </c>
       <c r="G120" t="n">
-        <v>6112.248140885005</v>
+        <v>6204.742279251371</v>
       </c>
       <c r="H120" t="n">
-        <v>2.88632908473604</v>
+        <v>0.150079203920754</v>
       </c>
     </row>
     <row r="121">
@@ -3814,25 +3814,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>4.31806407462792</v>
+        <v>6.675940789756695</v>
       </c>
       <c r="C121" t="n">
-        <v>0.04784883528661099</v>
+        <v>0.09921997212879567</v>
       </c>
       <c r="D121" t="n">
-        <v>1.961850916398845</v>
+        <v>1.975318781543861</v>
       </c>
       <c r="E121" t="n">
-        <v>18.92130446900426</v>
+        <v>15.8760868026965</v>
       </c>
       <c r="F121" t="n">
-        <v>0.1780313275577715</v>
+        <v>0.1890388235646316</v>
       </c>
       <c r="G121" t="n">
-        <v>6107.777370676588</v>
+        <v>6022.993938038964</v>
       </c>
       <c r="H121" t="n">
-        <v>3.20680288558643</v>
+        <v>2.15108683698836</v>
       </c>
     </row>
     <row r="122">
@@ -3842,25 +3842,25 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>4.317910228267175</v>
+        <v>6.472889129177132</v>
       </c>
       <c r="C122" t="n">
-        <v>0.04811730294636093</v>
+        <v>0.2243985560405256</v>
       </c>
       <c r="D122" t="n">
-        <v>1.940634024767828</v>
+        <v>1.935349199081236</v>
       </c>
       <c r="E122" t="n">
-        <v>18.92373366122515</v>
+        <v>18.97468038651675</v>
       </c>
       <c r="F122" t="n">
-        <v>0.178025548708151</v>
+        <v>0.1687526265045781</v>
       </c>
       <c r="G122" t="n">
-        <v>6106.742263974904</v>
+        <v>6111.462132655634</v>
       </c>
       <c r="H122" t="n">
-        <v>2.97783705896134</v>
+        <v>0.446959462810991</v>
       </c>
     </row>
     <row r="123">
@@ -3870,25 +3870,25 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.3205114252701</v>
+        <v>7.214454392178077</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04825186882896469</v>
+        <v>0.1626845343801792</v>
       </c>
       <c r="D123" t="n">
-        <v>1.920892353593314</v>
+        <v>1.86858050581462</v>
       </c>
       <c r="E123" t="n">
-        <v>18.90360601601365</v>
+        <v>16.47720373550703</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1775310628355065</v>
+        <v>0.1739027543669653</v>
       </c>
       <c r="G123" t="n">
-        <v>6098.943938598118</v>
+        <v>6024.779092832739</v>
       </c>
       <c r="H123" t="n">
-        <v>2.91764012165719</v>
+        <v>0.934216426636998</v>
       </c>
     </row>
     <row r="124">
@@ -3898,25 +3898,25 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>4.318185946789103</v>
+        <v>6.781562328672542</v>
       </c>
       <c r="C124" t="n">
-        <v>0.04819851194009726</v>
+        <v>0.1703584186320004</v>
       </c>
       <c r="D124" t="n">
-        <v>1.926348038113939</v>
+        <v>1.889163024396725</v>
       </c>
       <c r="E124" t="n">
-        <v>18.91122988719741</v>
+        <v>17.55050936179536</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1777817572109658</v>
+        <v>0.1756398937927549</v>
       </c>
       <c r="G124" t="n">
-        <v>6101.655449760262</v>
+        <v>6061.223549020958</v>
       </c>
       <c r="H124" t="n">
-        <v>2.96547915338426</v>
+        <v>0.739014035107314</v>
       </c>
     </row>
     <row r="125">
@@ -3926,25 +3926,25 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>4.320103974995842</v>
+        <v>7.343881791503811</v>
       </c>
       <c r="C125" t="n">
-        <v>0.04808236303436979</v>
+        <v>0.1287577836132498</v>
       </c>
       <c r="D125" t="n">
-        <v>1.941524237816681</v>
+        <v>1.918793944342659</v>
       </c>
       <c r="E125" t="n">
-        <v>18.91112005549689</v>
+        <v>15.88778991650657</v>
       </c>
       <c r="F125" t="n">
-        <v>0.1778482653343967</v>
+        <v>0.1867578683714916</v>
       </c>
       <c r="G125" t="n">
-        <v>6103.319330149886</v>
+        <v>6016.878842015575</v>
       </c>
       <c r="H125" t="n">
-        <v>3.06074018307971</v>
+        <v>1.29737872377159</v>
       </c>
     </row>
     <row r="126">
@@ -3954,25 +3954,25 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.320152724193139</v>
+        <v>7.376300652416797</v>
       </c>
       <c r="C126" t="n">
-        <v>0.04809246709640635</v>
+        <v>0.1313908690885832</v>
       </c>
       <c r="D126" t="n">
-        <v>1.941557998066048</v>
+        <v>1.918945234998437</v>
       </c>
       <c r="E126" t="n">
-        <v>18.91121260203809</v>
+        <v>15.90424250487703</v>
       </c>
       <c r="F126" t="n">
-        <v>0.1778345745746875</v>
+        <v>0.1860851904004843</v>
       </c>
       <c r="G126" t="n">
-        <v>6103.338453927857</v>
+        <v>6017.197285496171</v>
       </c>
       <c r="H126" t="n">
-        <v>3.06088573975307</v>
+        <v>1.26091689565864</v>
       </c>
     </row>
     <row r="127">
@@ -3982,25 +3982,25 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>4.318769245863507</v>
+        <v>7.01419958968118</v>
       </c>
       <c r="C127" t="n">
-        <v>0.04789796720408131</v>
+        <v>0.1030115879677676</v>
       </c>
       <c r="D127" t="n">
-        <v>1.957092461315005</v>
+        <v>1.959804584602113</v>
       </c>
       <c r="E127" t="n">
-        <v>18.91772940678583</v>
+        <v>15.57407594319883</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1779927188912509</v>
+        <v>0.189674938873055</v>
       </c>
       <c r="G127" t="n">
-        <v>6106.421491566863</v>
+        <v>6012.068565140005</v>
       </c>
       <c r="H127" t="n">
-        <v>3.17798094401906</v>
+        <v>1.92982122321599</v>
       </c>
     </row>
     <row r="128">
@@ -4010,25 +4010,25 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>4.317548322252931</v>
+        <v>6.584696187469632</v>
       </c>
       <c r="C128" t="n">
-        <v>0.04795571760321202</v>
+        <v>0.1079162191104452</v>
       </c>
       <c r="D128" t="n">
-        <v>1.946757484434372</v>
+        <v>1.935120901654271</v>
       </c>
       <c r="E128" t="n">
-        <v>18.91545788464287</v>
+        <v>16.27408820828918</v>
       </c>
       <c r="F128" t="n">
-        <v>0.1778850664349947</v>
+        <v>0.1854842215729011</v>
       </c>
       <c r="G128" t="n">
-        <v>6104.937529229477</v>
+        <v>6029.407913545357</v>
       </c>
       <c r="H128" t="n">
-        <v>3.13691975921418</v>
+        <v>1.80135944142309</v>
       </c>
     </row>
     <row r="129">
@@ -4038,25 +4038,25 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>4.317730931675209</v>
+        <v>6.66430063157508</v>
       </c>
       <c r="C129" t="n">
-        <v>0.04797052852470132</v>
+        <v>0.1072926662753653</v>
       </c>
       <c r="D129" t="n">
-        <v>1.942882493972854</v>
+        <v>1.923210673307393</v>
       </c>
       <c r="E129" t="n">
-        <v>18.91259170510108</v>
+        <v>16.03932887969212</v>
       </c>
       <c r="F129" t="n">
-        <v>0.177873961963594</v>
+        <v>0.1871093151113287</v>
       </c>
       <c r="G129" t="n">
-        <v>6103.790035735236</v>
+        <v>6021.146963778858</v>
       </c>
       <c r="H129" t="n">
-        <v>3.11995437530543</v>
+        <v>1.8012442295031</v>
       </c>
     </row>
     <row r="130">
@@ -4066,25 +4066,25 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.317763972655563</v>
+        <v>6.531040953982032</v>
       </c>
       <c r="C130" t="n">
-        <v>0.04798446974627057</v>
+        <v>0.1247312959966363</v>
       </c>
       <c r="D130" t="n">
-        <v>1.952002345832272</v>
+        <v>1.958887010187552</v>
       </c>
       <c r="E130" t="n">
-        <v>18.92374575255667</v>
+        <v>17.73214476544976</v>
       </c>
       <c r="F130" t="n">
-        <v>0.1779880864884386</v>
+        <v>0.1800608170218565</v>
       </c>
       <c r="G130" t="n">
-        <v>6107.83911190266</v>
+        <v>6077.516192824623</v>
       </c>
       <c r="H130" t="n">
-        <v>3.0927762673449</v>
+        <v>1.12802415141655</v>
       </c>
     </row>
     <row r="131">
@@ -4094,25 +4094,25 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4.318983993199978</v>
+        <v>6.863100852646943</v>
       </c>
       <c r="C131" t="n">
-        <v>0.047929017511963</v>
+        <v>0.1109701527132112</v>
       </c>
       <c r="D131" t="n">
-        <v>1.959685212075907</v>
+        <v>1.972656325590314</v>
       </c>
       <c r="E131" t="n">
-        <v>18.92229070380221</v>
+        <v>16.44157550749522</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1780014916805729</v>
+        <v>0.1865745290413508</v>
       </c>
       <c r="G131" t="n">
-        <v>6107.984196402871</v>
+        <v>6040.360022695999</v>
       </c>
       <c r="H131" t="n">
-        <v>3.14918795731351</v>
+        <v>1.6227381477374</v>
       </c>
     </row>
     <row r="132">
@@ -4122,25 +4122,25 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>4.317477895099536</v>
+        <v>6.318957031275544</v>
       </c>
       <c r="C132" t="n">
-        <v>0.04777152816852411</v>
+        <v>0.09347318484250831</v>
       </c>
       <c r="D132" t="n">
-        <v>1.97577581716353</v>
+        <v>2.019432605729298</v>
       </c>
       <c r="E132" t="n">
-        <v>18.92963414536629</v>
+        <v>16.28825510639458</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1781538245180553</v>
+        <v>0.1892153641205165</v>
       </c>
       <c r="G132" t="n">
-        <v>6111.073110987076</v>
+        <v>6040.894913380216</v>
       </c>
       <c r="H132" t="n">
-        <v>3.27442305181319</v>
+        <v>2.43345014299335</v>
       </c>
     </row>
     <row r="133">
@@ -4150,25 +4150,25 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>4.319169035557167</v>
+        <v>7.123184021283873</v>
       </c>
       <c r="C133" t="n">
-        <v>0.04789370727983848</v>
+        <v>0.1022415866618828</v>
       </c>
       <c r="D133" t="n">
-        <v>1.958997852871812</v>
+        <v>1.965070375427153</v>
       </c>
       <c r="E133" t="n">
-        <v>18.9186100461831</v>
+        <v>15.55620551294171</v>
       </c>
       <c r="F133" t="n">
-        <v>0.1779847248242214</v>
+        <v>0.1890815875312942</v>
       </c>
       <c r="G133" t="n">
-        <v>6106.800639363136</v>
+        <v>6011.805411157916</v>
       </c>
       <c r="H133" t="n">
-        <v>3.17346811392282</v>
+        <v>1.87339354416143</v>
       </c>
     </row>
     <row r="134">
@@ -4178,25 +4178,25 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>4.318000753232893</v>
+        <v>6.445984565152809</v>
       </c>
       <c r="C134" t="n">
-        <v>0.04792810595412551</v>
+        <v>0.1284634495604198</v>
       </c>
       <c r="D134" t="n">
-        <v>1.965662924658158</v>
+        <v>2.002780438724067</v>
       </c>
       <c r="E134" t="n">
-        <v>18.9326708662013</v>
+        <v>18.47172509564507</v>
       </c>
       <c r="F134" t="n">
-        <v>0.1780721518101648</v>
+        <v>0.1758937809453026</v>
       </c>
       <c r="G134" t="n">
-        <v>6111.554868829387</v>
+        <v>6106.05923102402</v>
       </c>
       <c r="H134" t="n">
-        <v>3.11962610987835</v>
+        <v>0.963730808569175</v>
       </c>
     </row>
     <row r="135">
@@ -4206,25 +4206,25 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4.317512742596806</v>
+        <v>6.373121483440572</v>
       </c>
       <c r="C135" t="n">
-        <v>0.04787763441862263</v>
+        <v>0.102289610674908</v>
       </c>
       <c r="D135" t="n">
-        <v>1.96113627874192</v>
+        <v>1.980326413440536</v>
       </c>
       <c r="E135" t="n">
-        <v>18.92525483221155</v>
+        <v>17.01544385234457</v>
       </c>
       <c r="F135" t="n">
-        <v>0.1780244064677751</v>
+        <v>0.1848022671834031</v>
       </c>
       <c r="G135" t="n">
-        <v>6108.945242424661</v>
+        <v>6058.161827272605</v>
       </c>
       <c r="H135" t="n">
-        <v>3.17121281235345</v>
+        <v>1.80384329683677</v>
       </c>
     </row>
     <row r="136">
@@ -4234,25 +4234,25 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.31931910973937</v>
+        <v>6.817812901359495</v>
       </c>
       <c r="C136" t="n">
-        <v>0.04812428558724765</v>
+        <v>0.2138302193157316</v>
       </c>
       <c r="D136" t="n">
-        <v>1.945975298021732</v>
+        <v>1.946507336702286</v>
       </c>
       <c r="E136" t="n">
-        <v>18.9237374500551</v>
+        <v>18.4319576726497</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1779468599507116</v>
+        <v>0.1715845435749761</v>
       </c>
       <c r="G136" t="n">
-        <v>6107.316831276398</v>
+        <v>6096.857067902349</v>
       </c>
       <c r="H136" t="n">
-        <v>2.99187718600905</v>
+        <v>0.498054560777014</v>
       </c>
     </row>
     <row r="137">
@@ -4262,25 +4262,25 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>4.317979003136304</v>
+        <v>6.75656826672005</v>
       </c>
       <c r="C137" t="n">
-        <v>0.04808075170967643</v>
+        <v>0.1154396629761883</v>
       </c>
       <c r="D137" t="n">
-        <v>1.930723818367972</v>
+        <v>1.892345053271198</v>
       </c>
       <c r="E137" t="n">
-        <v>18.90754999916379</v>
+        <v>16.25794816887884</v>
       </c>
       <c r="F137" t="n">
-        <v>0.1777390169888552</v>
+        <v>0.1839139908322071</v>
       </c>
       <c r="G137" t="n">
-        <v>6101.158771997952</v>
+        <v>6022.730493773161</v>
       </c>
       <c r="H137" t="n">
-        <v>3.04405187577481</v>
+        <v>1.44034877072901</v>
       </c>
     </row>
     <row r="138">
@@ -4290,25 +4290,25 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>4.317884135918699</v>
+        <v>6.66163883221391</v>
       </c>
       <c r="C138" t="n">
-        <v>0.04804742690684434</v>
+        <v>0.1168626412586926</v>
       </c>
       <c r="D138" t="n">
-        <v>1.937853120191396</v>
+        <v>1.914391454779876</v>
       </c>
       <c r="E138" t="n">
-        <v>18.91329129464842</v>
+        <v>16.78866761854621</v>
       </c>
       <c r="F138" t="n">
-        <v>0.1778469607951695</v>
+        <v>0.1837513100571998</v>
       </c>
       <c r="G138" t="n">
-        <v>6103.520511791235</v>
+        <v>6042.310996615283</v>
       </c>
       <c r="H138" t="n">
-        <v>3.05772216287476</v>
+        <v>1.33115197306315</v>
       </c>
     </row>
     <row r="139">
@@ -4318,25 +4318,25 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.31814386820741</v>
+        <v>6.539986219334137</v>
       </c>
       <c r="C139" t="n">
-        <v>0.04785637848479309</v>
+        <v>0.09944284932580894</v>
       </c>
       <c r="D139" t="n">
-        <v>1.966130718357603</v>
+        <v>1.992510398739662</v>
       </c>
       <c r="E139" t="n">
-        <v>18.92608750438137</v>
+        <v>16.61084839229397</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1780782536713181</v>
+        <v>0.1882311954666931</v>
       </c>
       <c r="G139" t="n">
-        <v>6109.527888741701</v>
+        <v>6047.969156053034</v>
       </c>
       <c r="H139" t="n">
-        <v>3.19218929227598</v>
+        <v>1.89979603922457</v>
       </c>
     </row>
     <row r="140">
@@ -4346,25 +4346,25 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.315487908817847</v>
+        <v>6.012964156853772</v>
       </c>
       <c r="C140" t="n">
-        <v>0.04792468583453046</v>
+        <v>0.1038725293524126</v>
       </c>
       <c r="D140" t="n">
-        <v>1.946331375593972</v>
+        <v>1.9449479716433</v>
       </c>
       <c r="E140" t="n">
-        <v>18.92269064424329</v>
+        <v>18.07006685032508</v>
       </c>
       <c r="F140" t="n">
-        <v>0.177941203633406</v>
+        <v>0.1784314632676654</v>
       </c>
       <c r="G140" t="n">
-        <v>6106.938993415993</v>
+        <v>6084.138485294686</v>
       </c>
       <c r="H140" t="n">
-        <v>3.10342915013726</v>
+        <v>1.29834013992607</v>
       </c>
     </row>
     <row r="141">
@@ -4374,25 +4374,25 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>4.317205695375905</v>
+        <v>6.242462786655594</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0477802725385492</v>
+        <v>0.09034033084939798</v>
       </c>
       <c r="D141" t="n">
-        <v>1.971246512465164</v>
+        <v>2.005895564407332</v>
       </c>
       <c r="E141" t="n">
-        <v>18.92761488281713</v>
+        <v>16.33405776605981</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1781181804468923</v>
+        <v>0.1896122312116819</v>
       </c>
       <c r="G141" t="n">
-        <v>6110.228056563587</v>
+        <v>6040.349138689719</v>
       </c>
       <c r="H141" t="n">
-        <v>3.25491180700946</v>
+        <v>2.39645037798507</v>
       </c>
     </row>
     <row r="142">
@@ -4402,25 +4402,25 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.31744246751948</v>
+        <v>6.322214518442196</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04791681442285609</v>
+        <v>0.1177857676837216</v>
       </c>
       <c r="D142" t="n">
-        <v>1.96418336094492</v>
+        <v>1.998207793277743</v>
       </c>
       <c r="E142" t="n">
-        <v>18.93192834099305</v>
+        <v>18.43976745704203</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1780774387122438</v>
+        <v>0.1780091541013229</v>
       </c>
       <c r="G142" t="n">
-        <v>6111.216898422967</v>
+        <v>6104.346527288982</v>
       </c>
       <c r="H142" t="n">
-        <v>3.1289499743054</v>
+        <v>1.024235228271</v>
       </c>
     </row>
     <row r="143">
@@ -4430,25 +4430,25 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>4.317058333343271</v>
+        <v>6.412407533237213</v>
       </c>
       <c r="C143" t="n">
-        <v>0.04797147383020594</v>
+        <v>0.104630684710036</v>
       </c>
       <c r="D143" t="n">
-        <v>1.943132733106191</v>
+        <v>1.929339064309221</v>
       </c>
       <c r="E143" t="n">
-        <v>18.91651692993278</v>
+        <v>16.94606122143546</v>
       </c>
       <c r="F143" t="n">
-        <v>0.1778665550517808</v>
+        <v>0.1833576912067615</v>
       </c>
       <c r="G143" t="n">
-        <v>6104.907922663479</v>
+        <v>6048.272948809335</v>
       </c>
       <c r="H143" t="n">
-        <v>3.0951850577023</v>
+        <v>1.52557615253537</v>
       </c>
     </row>
     <row r="144">
@@ -4458,25 +4458,25 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>4.317888762546803</v>
+        <v>6.582536428703827</v>
       </c>
       <c r="C144" t="n">
-        <v>0.04796790896606486</v>
+        <v>0.1144882722395102</v>
       </c>
       <c r="D144" t="n">
-        <v>1.955191877878469</v>
+        <v>1.965286754323158</v>
       </c>
       <c r="E144" t="n">
-        <v>18.92362910526193</v>
+        <v>17.33005136545118</v>
       </c>
       <c r="F144" t="n">
-        <v>0.1779793873805373</v>
+        <v>0.182818955528582</v>
       </c>
       <c r="G144" t="n">
-        <v>6108.053006836845</v>
+        <v>6065.755864740175</v>
       </c>
       <c r="H144" t="n">
-        <v>3.12413798036901</v>
+        <v>1.29527543939042</v>
       </c>
     </row>
     <row r="145">
@@ -4486,25 +4486,25 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>4.318217146005114</v>
+        <v>6.543096752689509</v>
       </c>
       <c r="C145" t="n">
-        <v>0.04791818109292151</v>
+        <v>0.1086537853304392</v>
       </c>
       <c r="D145" t="n">
-        <v>1.962519133867924</v>
+        <v>1.986997687252779</v>
       </c>
       <c r="E145" t="n">
-        <v>18.92739128905941</v>
+        <v>17.43225251299569</v>
       </c>
       <c r="F145" t="n">
-        <v>0.1780300302764592</v>
+        <v>0.1831011620993936</v>
       </c>
       <c r="G145" t="n">
-        <v>6109.721159551284</v>
+        <v>6071.878366892988</v>
       </c>
       <c r="H145" t="n">
-        <v>3.14003078676478</v>
+        <v>1.38515221772711</v>
       </c>
     </row>
     <row r="146">
@@ -4514,25 +4514,25 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4.318985862324671</v>
+        <v>6.463640768603906</v>
       </c>
       <c r="C146" t="n">
-        <v>0.04811521907127417</v>
+        <v>0.5325419611807094</v>
       </c>
       <c r="D146" t="n">
-        <v>1.961608935176258</v>
+        <v>2.00419390837173</v>
       </c>
       <c r="E146" t="n">
-        <v>18.93852633740355</v>
+        <v>20.56951980947699</v>
       </c>
       <c r="F146" t="n">
-        <v>0.1782177407371061</v>
+        <v>0.1640266517530775</v>
       </c>
       <c r="G146" t="n">
-        <v>6113.126415696219</v>
+        <v>6171.407907401297</v>
       </c>
       <c r="H146" t="n">
-        <v>2.99416237300073</v>
+        <v>0.184507916849683</v>
       </c>
     </row>
     <row r="147">
@@ -4542,25 +4542,25 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.308712334924663</v>
+        <v>5.182478861236744</v>
       </c>
       <c r="C147" t="n">
-        <v>0.04841137644026366</v>
+        <v>0.2126682130450254</v>
       </c>
       <c r="D147" t="n">
-        <v>1.872774535786287</v>
+        <v>1.776701245612995</v>
       </c>
       <c r="E147" t="n">
-        <v>18.89975163765546</v>
+        <v>19.62600738817418</v>
       </c>
       <c r="F147" t="n">
-        <v>0.1775061679662454</v>
+        <v>0.1579577099669642</v>
       </c>
       <c r="G147" t="n">
-        <v>6089.25429636431</v>
+        <v>6098.269882896473</v>
       </c>
       <c r="H147" t="n">
-        <v>2.75894189573848</v>
+        <v>0.310768132344474</v>
       </c>
     </row>
     <row r="148">
@@ -4570,25 +4570,25 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4.311418176632436</v>
+        <v>4.845143814299322</v>
       </c>
       <c r="C148" t="n">
-        <v>0.04792297386999041</v>
+        <v>0.1346132824555612</v>
       </c>
       <c r="D148" t="n">
-        <v>1.936997545152144</v>
+        <v>1.939710250900459</v>
       </c>
       <c r="E148" t="n">
-        <v>18.9327935725544</v>
+        <v>21.3673017007577</v>
       </c>
       <c r="F148" t="n">
-        <v>0.1780343749534779</v>
+        <v>0.160817956539393</v>
       </c>
       <c r="G148" t="n">
-        <v>6108.606885585629</v>
+        <v>6180.88742354153</v>
       </c>
       <c r="H148" t="n">
-        <v>3.0009235247652</v>
+        <v>0.457637125175728</v>
       </c>
     </row>
     <row r="149">
@@ -4598,25 +4598,25 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>4.309917929251974</v>
+        <v>4.356434636363822</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0475816804343422</v>
+        <v>0.06912441836017746</v>
       </c>
       <c r="D149" t="n">
-        <v>1.960124379116709</v>
+        <v>1.974687913875788</v>
       </c>
       <c r="E149" t="n">
-        <v>18.92420307151977</v>
+        <v>16.73576602164511</v>
       </c>
       <c r="F149" t="n">
-        <v>0.1779598870010219</v>
+        <v>0.1838755116994612</v>
       </c>
       <c r="G149" t="n">
-        <v>6108.265100520415</v>
+        <v>6043.759963238746</v>
       </c>
       <c r="H149" t="n">
-        <v>3.38773288743924</v>
+        <v>3.45231287837897</v>
       </c>
     </row>
     <row r="150">
@@ -4626,25 +4626,25 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>4.307239916993226</v>
+        <v>6.091788048529203</v>
       </c>
       <c r="C150" t="n">
-        <v>0.04881892062197418</v>
+        <v>0.1351375130490685</v>
       </c>
       <c r="D150" t="n">
-        <v>1.832892560836143</v>
+        <v>1.674726678789948</v>
       </c>
       <c r="E150" t="n">
-        <v>18.85558610451675</v>
+        <v>15.67131127802319</v>
       </c>
       <c r="F150" t="n">
-        <v>0.1766989118498293</v>
+        <v>0.1660637725454798</v>
       </c>
       <c r="G150" t="n">
-        <v>6070.344667881222</v>
+        <v>5963.297991157824</v>
       </c>
       <c r="H150" t="n">
-        <v>2.77833710947182</v>
+        <v>0.887554843303079</v>
       </c>
     </row>
     <row r="151">
@@ -4654,25 +4654,25 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>4.297969671163323</v>
+        <v>3.80941767074298</v>
       </c>
       <c r="C151" t="n">
-        <v>0.04770904698156388</v>
+        <v>0.06701610906682626</v>
       </c>
       <c r="D151" t="n">
-        <v>1.871095970312616</v>
+        <v>1.7391780785435</v>
       </c>
       <c r="E151" t="n">
-        <v>18.86585664362293</v>
+        <v>13.99383400633774</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1771113676591216</v>
+        <v>0.1842752396228398</v>
       </c>
       <c r="G151" t="n">
-        <v>6081.300078049449</v>
+        <v>5925.482573226825</v>
       </c>
       <c r="H151" t="n">
-        <v>3.24582963803362</v>
+        <v>3.82470789616488</v>
       </c>
     </row>
     <row r="152">
@@ -4682,25 +4682,25 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>4.297193140308595</v>
+        <v>4.365772088355373</v>
       </c>
       <c r="C152" t="n">
-        <v>0.04804998228991795</v>
+        <v>0.07722996476217396</v>
       </c>
       <c r="D152" t="n">
-        <v>1.852414547693957</v>
+        <v>1.723252619840966</v>
       </c>
       <c r="E152" t="n">
-        <v>18.88007101118082</v>
+        <v>17.72061482859192</v>
       </c>
       <c r="F152" t="n">
-        <v>0.1771601520903532</v>
+        <v>0.16935152636065</v>
       </c>
       <c r="G152" t="n">
-        <v>6080.014533494271</v>
+        <v>6028.953066747379</v>
       </c>
       <c r="H152" t="n">
-        <v>2.93914335995688</v>
+        <v>1.64084071205973</v>
       </c>
     </row>
     <row r="153">
@@ -4710,25 +4710,25 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>4.287521532956934</v>
+        <v>3.264515963074223</v>
       </c>
       <c r="C153" t="n">
-        <v>0.04808388607723546</v>
+        <v>0.07894544751261001</v>
       </c>
       <c r="D153" t="n">
-        <v>1.834058292427819</v>
+        <v>1.709561296812892</v>
       </c>
       <c r="E153" t="n">
-        <v>18.89920183459033</v>
+        <v>21.38726973523289</v>
       </c>
       <c r="F153" t="n">
-        <v>0.1770705728832689</v>
+        <v>0.1726170233064328</v>
       </c>
       <c r="G153" t="n">
-        <v>6078.475063032623</v>
+        <v>6130.005481221465</v>
       </c>
       <c r="H153" t="n">
-        <v>2.76532976847781</v>
+        <v>0.675567115340422</v>
       </c>
     </row>
     <row r="154">
@@ -4738,25 +4738,25 @@
         </is>
       </c>
       <c r="B154" t="n">
-        <v>4.300124355198288</v>
+        <v>3.901259800548486</v>
       </c>
       <c r="C154" t="n">
-        <v>0.04769699357849465</v>
+        <v>0.06905285044610351</v>
       </c>
       <c r="D154" t="n">
-        <v>1.885934920383366</v>
+        <v>1.773538675008734</v>
       </c>
       <c r="E154" t="n">
-        <v>18.87653402179976</v>
+        <v>14.44123653736355</v>
       </c>
       <c r="F154" t="n">
-        <v>0.1772424151229736</v>
+        <v>0.1832294783456515</v>
       </c>
       <c r="G154" t="n">
-        <v>6086.507598244555</v>
+        <v>5944.231581513724</v>
       </c>
       <c r="H154" t="n">
-        <v>3.28306864085883</v>
+        <v>3.745489387695</v>
       </c>
     </row>
     <row r="155">
@@ -4766,25 +4766,25 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4.294077449230526</v>
+        <v>3.949746870048839</v>
       </c>
       <c r="C155" t="n">
-        <v>0.047866335748549</v>
+        <v>0.06930804655607008</v>
       </c>
       <c r="D155" t="n">
-        <v>1.845251703828647</v>
+        <v>1.69096201438497</v>
       </c>
       <c r="E155" t="n">
-        <v>18.8553815875512</v>
+        <v>14.57409418527311</v>
       </c>
       <c r="F155" t="n">
-        <v>0.1768330973239882</v>
+        <v>0.1786465423051325</v>
       </c>
       <c r="G155" t="n">
-        <v>6073.276651702607</v>
+        <v>5932.828292137105</v>
       </c>
       <c r="H155" t="n">
-        <v>3.11677349628087</v>
+        <v>3.25576043517617</v>
       </c>
     </row>
     <row r="156">
@@ -4794,25 +4794,25 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4.305752753064617</v>
+        <v>4.468017333528509</v>
       </c>
       <c r="C156" t="n">
-        <v>0.04815954927448937</v>
+        <v>0.166686350999889</v>
       </c>
       <c r="D156" t="n">
-        <v>1.888442135798829</v>
+        <v>1.82019745109952</v>
       </c>
       <c r="E156" t="n">
-        <v>18.91521103438811</v>
+        <v>21.2777036845585</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1775579095646437</v>
+        <v>0.1602468329841493</v>
       </c>
       <c r="G156" t="n">
-        <v>6095.926483274893</v>
+        <v>6153.171029897449</v>
       </c>
       <c r="H156" t="n">
-        <v>2.83704090874599</v>
+        <v>0.340126122267885</v>
       </c>
     </row>
     <row r="157">
@@ -4822,25 +4822,25 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>4.30581308544133</v>
+        <v>5.341960670453425</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04806486466190497</v>
+        <v>0.08339917286483753</v>
       </c>
       <c r="D157" t="n">
-        <v>1.862116759038202</v>
+        <v>1.716070178890345</v>
       </c>
       <c r="E157" t="n">
-        <v>18.85469923486729</v>
+        <v>13.1213142432688</v>
       </c>
       <c r="F157" t="n">
-        <v>0.1770040143656182</v>
+        <v>0.1863653561740319</v>
       </c>
       <c r="G157" t="n">
-        <v>6077.267868076136</v>
+        <v>5898.786852261626</v>
       </c>
       <c r="H157" t="n">
-        <v>3.08143004617565</v>
+        <v>3.1916488717583</v>
       </c>
     </row>
     <row r="158">
@@ -4850,25 +4850,25 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>4.31140084619168</v>
+        <v>5.642190264123845</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0481581627634147</v>
+        <v>0.1223131343458199</v>
       </c>
       <c r="D158" t="n">
-        <v>1.902137603210266</v>
+        <v>1.834920825943504</v>
       </c>
       <c r="E158" t="n">
-        <v>18.905397416849</v>
+        <v>18.48735615016422</v>
       </c>
       <c r="F158" t="n">
-        <v>0.1775821772684132</v>
+        <v>0.1644370959353053</v>
       </c>
       <c r="G158" t="n">
-        <v>6096.350409602286</v>
+        <v>6075.344210933521</v>
       </c>
       <c r="H158" t="n">
-        <v>2.94553880055925</v>
+        <v>0.799337256816966</v>
       </c>
     </row>
     <row r="159">
@@ -4878,25 +4878,25 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>4.310664665116746</v>
+        <v>5.275239771126786</v>
       </c>
       <c r="C159" t="n">
-        <v>0.04776831398830074</v>
+        <v>0.07960867210664205</v>
       </c>
       <c r="D159" t="n">
-        <v>1.923438631018388</v>
+        <v>1.861568919961609</v>
       </c>
       <c r="E159" t="n">
-        <v>18.89561226319051</v>
+        <v>14.34464004511414</v>
       </c>
       <c r="F159" t="n">
-        <v>0.1776795774624914</v>
+        <v>0.1899261771616998</v>
       </c>
       <c r="G159" t="n">
-        <v>6096.933612874291</v>
+        <v>5958.27445141174</v>
       </c>
       <c r="H159" t="n">
-        <v>3.27248964693658</v>
+        <v>3.46331540675228</v>
       </c>
     </row>
     <row r="160">
@@ -4906,25 +4906,25 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>4.311720443034865</v>
+        <v>5.465142571410696</v>
       </c>
       <c r="C160" t="n">
-        <v>0.04787161306325939</v>
+        <v>0.08724733594915743</v>
       </c>
       <c r="D160" t="n">
-        <v>1.927858980160149</v>
+        <v>1.887440435458803</v>
       </c>
       <c r="E160" t="n">
-        <v>18.90877681201313</v>
+        <v>16.75414011404042</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1776938104238089</v>
+        <v>0.180856482072927</v>
       </c>
       <c r="G160" t="n">
-        <v>6100.965566770245</v>
+        <v>6033.570930945295</v>
       </c>
       <c r="H160" t="n">
-        <v>3.16298992129939</v>
+        <v>2.29169087686278</v>
       </c>
     </row>
     <row r="161">
@@ -4934,25 +4934,25 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.312959492003014</v>
+        <v>5.6398037571575</v>
       </c>
       <c r="C161" t="n">
-        <v>0.04785763765543984</v>
+        <v>0.08684365510429176</v>
       </c>
       <c r="D161" t="n">
-        <v>1.929167348877817</v>
+        <v>1.882998563286025</v>
       </c>
       <c r="E161" t="n">
-        <v>18.90351783422583</v>
+        <v>15.4557728037387</v>
       </c>
       <c r="F161" t="n">
-        <v>0.1777171868958785</v>
+        <v>0.1871002784811942</v>
       </c>
       <c r="G161" t="n">
-        <v>6099.743789638474</v>
+        <v>5995.119070195374</v>
       </c>
       <c r="H161" t="n">
-        <v>3.19732730424193</v>
+        <v>2.80333333359124</v>
       </c>
     </row>
     <row r="162">
@@ -4962,25 +4962,25 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>4.314962506594144</v>
+        <v>6.110589810069857</v>
       </c>
       <c r="C162" t="n">
-        <v>0.04819050548604313</v>
+        <v>0.1573371118908433</v>
       </c>
       <c r="D162" t="n">
-        <v>1.915151920543195</v>
+        <v>1.866349187168839</v>
       </c>
       <c r="E162" t="n">
-        <v>18.9107074437395</v>
+        <v>18.47047693738546</v>
       </c>
       <c r="F162" t="n">
-        <v>0.177733645071374</v>
+        <v>0.1656506002409371</v>
       </c>
       <c r="G162" t="n">
-        <v>6099.861130470671</v>
+        <v>6082.398275811513</v>
       </c>
       <c r="H162" t="n">
-        <v>2.93917061071266</v>
+        <v>0.599843095456265</v>
       </c>
     </row>
     <row r="163">
@@ -4990,25 +4990,25 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>4.309193537132971</v>
+        <v>5.817198082575175</v>
       </c>
       <c r="C163" t="n">
-        <v>0.04810199406612072</v>
+        <v>0.08785552716880142</v>
       </c>
       <c r="D163" t="n">
-        <v>1.872690954567829</v>
+        <v>1.739831168055267</v>
       </c>
       <c r="E163" t="n">
-        <v>18.86250834505872</v>
+        <v>13.41169944558123</v>
       </c>
       <c r="F163" t="n">
-        <v>0.1771946454771395</v>
+        <v>0.1887250805720355</v>
       </c>
       <c r="G163" t="n">
-        <v>6081.183814491102</v>
+        <v>5912.889409220973</v>
       </c>
       <c r="H163" t="n">
-        <v>3.06030748828062</v>
+        <v>2.86916693865501</v>
       </c>
     </row>
     <row r="164">
@@ -5018,25 +5018,25 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>4.309293712791911</v>
+        <v>4.980497094041441</v>
       </c>
       <c r="C164" t="n">
-        <v>0.04777602123585198</v>
+        <v>0.07881353427379806</v>
       </c>
       <c r="D164" t="n">
-        <v>1.916187713088874</v>
+        <v>1.845089633132835</v>
       </c>
       <c r="E164" t="n">
-        <v>18.89303406066734</v>
+        <v>14.59859435412193</v>
       </c>
       <c r="F164" t="n">
-        <v>0.177606851475489</v>
+        <v>0.1883369387926268</v>
       </c>
       <c r="G164" t="n">
-        <v>6095.352856951237</v>
+        <v>5963.073662070549</v>
       </c>
       <c r="H164" t="n">
-        <v>3.25230655598998</v>
+        <v>3.47879508085287</v>
       </c>
     </row>
     <row r="165">
@@ -5046,25 +5046,25 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
       <c r="C165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
       <c r="D165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
       <c r="E165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
       <c r="F165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
       <c r="G165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
       <c r="H165" t="n">
-        <v>120.1039242744446</v>
+        <v>314.2144689559937</v>
       </c>
     </row>
   </sheetData>
